--- a/src_files/data_files/gg-smr-scenario-changes.xlsx
+++ b/src_files/data_files/gg-smr-scenario-changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FE55D0F-65D1-47FB-B6DC-70DBB387A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426D96C-7E84-4F58-BDA6-B5B2FD23172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="17880" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="20" r:id="rId1"/>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3417" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="348">
   <si>
     <t>Country</t>
   </si>
@@ -2262,9 +2262,6 @@
   </cellStyles>
   <dxfs count="21">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2402,6 +2399,9 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3796,30 +3796,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5424910F-2C5D-4B35-9004-F85561E7B895}" name="Table53" displayName="Table53" ref="A1:O222" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
-  <autoFilter ref="A1:O222" xr:uid="{4481F0AF-41D8-47A8-8506-AC52CB6AB7F9}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O221">
-    <sortCondition ref="A1:A221"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5424910F-2C5D-4B35-9004-F85561E7B895}" name="Table53" displayName="Table53" ref="A1:O226" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="A1:O226" xr:uid="{4481F0AF-41D8-47A8-8506-AC52CB6AB7F9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O225">
+    <sortCondition ref="A1:A225"/>
   </sortState>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{B299E928-337C-46B0-95E4-9A60DA1E5101}" name="Country"/>
     <tableColumn id="2" xr3:uid="{6D73A02C-25DD-4DCE-9BA8-2CB09C12D849}" name="Generator_ID"/>
     <tableColumn id="3" xr3:uid="{4597042F-086E-489B-A4F8-EEEBD00D0F9A}" name="Scenario"/>
     <tableColumn id="4" xr3:uid="{4020064B-242A-4565-AE7B-F04ACE714691}" name="Year"/>
-    <tableColumn id="6" xr3:uid="{F89A71A9-9F53-4BB4-804D-84F513676E64}" name="capacity_output1" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{F89A71A9-9F53-4BB4-804D-84F513676E64}" name="capacity_output1" dataDxfId="17">
       <calculatedColumnFormula>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B28618D4-9A0F-4B8A-A928-E9C758C4B76C}" name="capacity_output1_raw"/>
     <tableColumn id="14" xr3:uid="{1F181C12-EABF-492A-8844-C4044388A4D3}" name="capacity_output2"/>
-    <tableColumn id="11" xr3:uid="{29154862-9635-43DD-A9C5-88E42192DBCB}" name="maxUnitCount" dataDxfId="17">
+    <tableColumn id="11" xr3:uid="{29154862-9635-43DD-A9C5-88E42192DBCB}" name="maxUnitCount" dataDxfId="16">
       <calculatedColumnFormula>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{B3CD0CD7-DA15-4B53-8C7D-2B8398670990}" name="OrigCap" dataDxfId="16"/>
+    <tableColumn id="10" xr3:uid="{B3CD0CD7-DA15-4B53-8C7D-2B8398670990}" name="OrigCap" dataDxfId="15"/>
     <tableColumn id="19" xr3:uid="{88844B92-CB07-4F05-9946-C16FD17C5282}" name="unit_name_prefix"/>
     <tableColumn id="18" xr3:uid="{B9EAC89D-F5A3-4827-BE00-A8A11D6906C1}" name="node_suffix_input1"/>
     <tableColumn id="17" xr3:uid="{9822D9F8-D056-464D-BAC6-F9DDAE1A3B71}" name="node_suffix_output1"/>
     <tableColumn id="16" xr3:uid="{C0C64BC3-D61A-475F-9752-58E608DE13D5}" name="node_suffix_output2"/>
-    <tableColumn id="13" xr3:uid="{3DEDF04C-05E5-4FDC-9FCC-F0A1BDA2737B}" name="Column1" dataDxfId="15">
+    <tableColumn id="13" xr3:uid="{3DEDF04C-05E5-4FDC-9FCC-F0A1BDA2737B}" name="Column1" dataDxfId="14">
       <calculatedColumnFormula>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{F096CE08-BCAC-45E4-B2C6-34B25D38EC54}" name="Note"/>
@@ -3829,7 +3829,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5ACCC43-4C0F-4E8A-9E3C-45E44FB1B542}" name="Table534" displayName="Table534" ref="A1:N222" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{B5ACCC43-4C0F-4E8A-9E3C-45E44FB1B542}" name="Table534" displayName="Table534" ref="A1:N222" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:N222" xr:uid="{4481F0AF-41D8-47A8-8506-AC52CB6AB7F9}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N221">
     <sortCondition ref="A1:A221"/>
@@ -3841,15 +3841,15 @@
     <tableColumn id="4" xr3:uid="{AC49ABBE-EB14-4AD5-91BC-6E36776D6112}" name="Year"/>
     <tableColumn id="5" xr3:uid="{F4B4E9A4-9244-4DF8-B9BB-C1B6A20C3333}" name="capacity_output1"/>
     <tableColumn id="14" xr3:uid="{E7481F1A-F62D-4B75-8018-0BE15E8A13A4}" name="capacity_output2"/>
-    <tableColumn id="11" xr3:uid="{4E103503-BC1A-4BD6-AF65-693E99A8EC50}" name="maxUnitCount" dataDxfId="11">
+    <tableColumn id="11" xr3:uid="{4E103503-BC1A-4BD6-AF65-693E99A8EC50}" name="maxUnitCount" dataDxfId="10">
       <calculatedColumnFormula>ROUNDUP(Table534[[#This Row],[OrigCap]],0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{752B3809-DB2E-4B33-A857-743EA73D9B64}" name="OrigCap" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{752B3809-DB2E-4B33-A857-743EA73D9B64}" name="OrigCap" dataDxfId="9"/>
     <tableColumn id="19" xr3:uid="{B80A0D11-A6E6-4EA4-8D35-2D8C2994DBC5}" name="unit_name_prefix"/>
     <tableColumn id="18" xr3:uid="{8B8ECC0E-AEB7-4BC4-BC05-56BCA4D78252}" name="node_suffix_input1"/>
     <tableColumn id="17" xr3:uid="{B9228CF3-3811-4DCB-BC2D-5F47F3387FDF}" name="node_suffix_output1"/>
     <tableColumn id="16" xr3:uid="{6A5D6746-7628-4495-A4C3-93F1BA67CF9D}" name="node_suffix_output2"/>
-    <tableColumn id="13" xr3:uid="{61241A17-C6F2-41DB-9FA0-EC5D49FBCEFA}" name="Column1" dataDxfId="9">
+    <tableColumn id="13" xr3:uid="{61241A17-C6F2-41DB-9FA0-EC5D49FBCEFA}" name="Column1" dataDxfId="8">
       <calculatedColumnFormula>Table534[[#This Row],[capacity_output1]]=Table534[[#This Row],[OrigCap]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{BF064736-A471-413F-A99D-58A0C3E73A91}" name="Note"/>
@@ -3872,10 +3872,10 @@
     <tableColumn id="5" xr3:uid="{2991B9F3-BC4B-436B-A6C2-99D75C16F948}" name="unitSize"/>
     <tableColumn id="6" xr3:uid="{88C34648-C715-47C1-A8B2-EEFA4F7B62FA}" name="fomCosts"/>
     <tableColumn id="7" xr3:uid="{9A348F6A-6E68-4255-97F1-7FDD2B1A3A1E}" name="invCosts"/>
-    <tableColumn id="8" xr3:uid="{6A0B96F1-62E4-4B2C-ABCD-5DB4D5500220}" name="annuityFactor" dataDxfId="8">
+    <tableColumn id="8" xr3:uid="{6A0B96F1-62E4-4B2C-ABCD-5DB4D5500220}" name="annuityFactor" dataDxfId="7">
       <calculatedColumnFormula>-PMT(K2,J2,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{81667C39-5860-4F99-84B6-AC4294242EDA}" name="method" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{81667C39-5860-4F99-84B6-AC4294242EDA}" name="method" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{A35E7C9C-DDC3-4BC9-B524-52631A2244EE}" name="Technical lifetime"/>
     <tableColumn id="11" xr3:uid="{5C79C73E-C2E0-4F55-982B-AC0EFCB0D6C0}" name="Discount rate"/>
     <tableColumn id="12" xr3:uid="{AB6C9D91-B128-4EF6-BE4D-A7797B8BA120}" name="Note"/>
@@ -3885,7 +3885,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7914E85D-AEB8-4298-9CFA-8946E3B84359}" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7914E85D-AEB8-4298-9CFA-8946E3B84359}" name="Table1" displayName="Table1" ref="A1:F4" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:F4" xr:uid="{7914E85D-AEB8-4298-9CFA-8946E3B84359}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2B6A0461-3D31-4B8D-8D13-E87F1207F7AB}" name="Scenario"/>
@@ -3900,14 +3900,14 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D9844F2F-2EE0-434B-9492-0280A28AB057}" name="Table8" displayName="Table8" ref="A1:F31" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D9844F2F-2EE0-434B-9492-0280A28AB057}" name="Table8" displayName="Table8" ref="A1:F31" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:F31" xr:uid="{D9844F2F-2EE0-434B-9492-0280A28AB057}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{EE76C5C2-E9D6-4CA0-9ABF-B1C7F3426312}" name="Scenario" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{EE76C5C2-E9D6-4CA0-9ABF-B1C7F3426312}" name="Scenario" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{40AE79E8-AB14-466F-AE4B-226B9D11277C}" name="Year"/>
-    <tableColumn id="3" xr3:uid="{9172289D-E869-498C-9DCD-9CEC866DBBD2}" name="grid" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{AEC998FA-121F-4D1C-B1B1-FC7C7DDBA7AE}" name="price" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{9056A538-46B6-4FAC-AA92-94F33B818677}" name="emission_CO2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9172289D-E869-498C-9DCD-9CEC866DBBD2}" name="grid" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{AEC998FA-121F-4D1C-B1B1-FC7C7DDBA7AE}" name="price" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{9056A538-46B6-4FAC-AA92-94F33B818677}" name="emission_CO2" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{6A13F311-6059-4F9B-A044-6A5B707FC006}" name="Note"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -14723,10 +14723,10 @@
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:O222"/>
+  <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16042,7 +16042,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
         <v>4</v>
@@ -16052,21 +16052,20 @@
       </c>
       <c r="E43">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>2722</v>
+        <v>160</v>
       </c>
       <c r="F43">
-        <v>2722.4</v>
+        <v>160</v>
       </c>
       <c r="H43">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>10723</v>
+        <v>19000</v>
       </c>
       <c r="I43">
-        <v>10722.4</v>
+        <v>160</v>
       </c>
       <c r="N43" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -16074,7 +16073,7 @@
         <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
@@ -16084,21 +16083,20 @@
       </c>
       <c r="E44">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>6150</v>
+        <v>160</v>
       </c>
       <c r="F44">
-        <v>6150.2280000000001</v>
+        <v>160</v>
       </c>
       <c r="H44">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>4926</v>
+        <v>19000</v>
       </c>
       <c r="I44">
-        <v>4925.49</v>
+        <v>160</v>
       </c>
       <c r="N44" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -16106,7 +16104,7 @@
         <v>7</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
         <v>4</v>
@@ -16116,17 +16114,17 @@
       </c>
       <c r="E45">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>12859</v>
+        <v>2722</v>
       </c>
       <c r="F45">
-        <v>12859.47</v>
+        <v>2722.4</v>
       </c>
       <c r="H45">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>19097</v>
+        <v>10723</v>
       </c>
       <c r="I45">
-        <v>19096.107</v>
+        <v>10722.4</v>
       </c>
       <c r="N45" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -16138,7 +16136,7 @@
         <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
         <v>4</v>
@@ -16148,17 +16146,21 @@
       </c>
       <c r="E46">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>6150</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>6150.2280000000001</v>
       </c>
       <c r="H46">
-        <v>19000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>4926</v>
+      </c>
+      <c r="I46">
+        <v>4925.49</v>
       </c>
       <c r="N46" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -16166,7 +16168,7 @@
         <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
         <v>4</v>
@@ -16176,20 +16178,21 @@
       </c>
       <c r="E47">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>12859</v>
       </c>
       <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
+        <v>12859.47</v>
       </c>
       <c r="H47">
-        <v>19000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>19097</v>
+      </c>
+      <c r="I47">
+        <v>19096.107</v>
       </c>
       <c r="N47" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -16197,7 +16200,7 @@
         <v>7</v>
       </c>
       <c r="B48" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C48" t="s">
         <v>4</v>
@@ -16225,7 +16228,7 @@
         <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C49" t="s">
         <v>4</v>
@@ -16238,6 +16241,9 @@
         <v>0</v>
       </c>
       <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
@@ -16252,8 +16258,8 @@
       <c r="A50" t="s">
         <v>7</v>
       </c>
-      <c r="B50" s="86" t="s">
-        <v>241</v>
+      <c r="B50" t="s">
+        <v>262</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
@@ -16280,8 +16286,8 @@
       <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="86" t="s">
-        <v>243</v>
+      <c r="B51" t="s">
+        <v>239</v>
       </c>
       <c r="C51" t="s">
         <v>4</v>
@@ -16306,10 +16312,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>8</v>
-      </c>
-      <c r="B52" t="s">
-        <v>38</v>
+        <v>7</v>
+      </c>
+      <c r="B52" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C52" t="s">
         <v>4</v>
@@ -16325,23 +16331,19 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>3500</v>
-      </c>
-      <c r="I52">
-        <v>3500</v>
+        <v>19000</v>
       </c>
       <c r="N52" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>40</v>
+        <v>7</v>
+      </c>
+      <c r="B53" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C53" t="s">
         <v>4</v>
@@ -16351,21 +16353,17 @@
       </c>
       <c r="E53">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>1160</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1160</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>1360</v>
-      </c>
-      <c r="I53">
-        <v>1360</v>
+        <v>19000</v>
       </c>
       <c r="N53" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -16373,7 +16371,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="C54" t="s">
         <v>4</v>
@@ -16389,11 +16387,15 @@
         <v>0</v>
       </c>
       <c r="H54">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>3500</v>
+      </c>
+      <c r="I54">
         <v>3500</v>
       </c>
       <c r="N54" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -16401,7 +16403,7 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
@@ -16411,20 +16413,21 @@
       </c>
       <c r="E55">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
+        <v>1160</v>
       </c>
       <c r="H55">
-        <v>3500</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>1360</v>
+      </c>
+      <c r="I55">
+        <v>1360</v>
       </c>
       <c r="N55" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -16432,7 +16435,7 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
@@ -16460,7 +16463,7 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C57" t="s">
         <v>4</v>
@@ -16473,6 +16476,9 @@
         <v>0</v>
       </c>
       <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
@@ -16487,8 +16493,8 @@
       <c r="A58" t="s">
         <v>8</v>
       </c>
-      <c r="B58" s="86" t="s">
-        <v>241</v>
+      <c r="B58" t="s">
+        <v>262</v>
       </c>
       <c r="C58" t="s">
         <v>4</v>
@@ -16498,25 +16504,25 @@
       </c>
       <c r="E58">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>3500</v>
       </c>
       <c r="N58" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
         <v>8</v>
       </c>
-      <c r="B59" s="86" t="s">
-        <v>243</v>
+      <c r="B59" t="s">
+        <v>239</v>
       </c>
       <c r="C59" t="s">
         <v>4</v>
@@ -16526,25 +16532,25 @@
       </c>
       <c r="E59">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="H59">
         <v>3500</v>
       </c>
       <c r="N59" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>9</v>
-      </c>
-      <c r="B60" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="B60" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
@@ -16554,17 +16560,13 @@
       </c>
       <c r="E60">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>2500</v>
+        <v>96</v>
       </c>
       <c r="F60">
-        <v>2500</v>
+        <v>96</v>
       </c>
       <c r="H60">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>13000</v>
-      </c>
-      <c r="I60">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="N60" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -16573,10 +16575,10 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" t="s">
-        <v>9</v>
-      </c>
-      <c r="B61" t="s">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="B61" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C61" t="s">
         <v>4</v>
@@ -16586,17 +16588,13 @@
       </c>
       <c r="E61">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>2500</v>
+        <v>96</v>
       </c>
       <c r="F61">
-        <v>2500</v>
+        <v>96</v>
       </c>
       <c r="H61">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>13000</v>
-      </c>
-      <c r="I61">
-        <v>13000</v>
+        <v>3500</v>
       </c>
       <c r="N61" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -16608,7 +16606,7 @@
         <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
         <v>4</v>
@@ -16618,17 +16616,17 @@
       </c>
       <c r="E62">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>55617</v>
+        <v>2500</v>
       </c>
       <c r="F62">
-        <v>55617.493999999999</v>
+        <v>2500</v>
       </c>
       <c r="H62">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>79917</v>
+        <v>13000</v>
       </c>
       <c r="I62">
-        <v>79916.948999999993</v>
+        <v>13000</v>
       </c>
       <c r="N62" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -16640,7 +16638,7 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
         <v>4</v>
@@ -16650,17 +16648,17 @@
       </c>
       <c r="E63">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>73548</v>
+        <v>2500</v>
       </c>
       <c r="F63">
-        <v>73548.126999999993</v>
+        <v>2500</v>
       </c>
       <c r="H63">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>138549</v>
+        <v>13000</v>
       </c>
       <c r="I63">
-        <v>138548.12700000001</v>
+        <v>13000</v>
       </c>
       <c r="N63" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -16672,7 +16670,7 @@
         <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
@@ -16682,25 +16680,29 @@
       </c>
       <c r="E64">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>55617</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>55617.493999999999</v>
       </c>
       <c r="H64">
-        <v>138000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>79917</v>
+      </c>
+      <c r="I64">
+        <v>79916.948999999993</v>
       </c>
       <c r="N64" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C65" t="s">
         <v>4</v>
@@ -16710,17 +16712,17 @@
       </c>
       <c r="E65">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>1000</v>
+        <v>73548</v>
       </c>
       <c r="F65">
-        <v>1000</v>
+        <v>73548.126999999993</v>
       </c>
       <c r="H65">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>2000</v>
+        <v>138549</v>
       </c>
       <c r="I65">
-        <v>2000</v>
+        <v>138548.12700000001</v>
       </c>
       <c r="N65" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -16729,10 +16731,10 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="C66" t="s">
         <v>4</v>
@@ -16742,21 +16744,17 @@
       </c>
       <c r="E66">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>2000</v>
-      </c>
-      <c r="I66">
-        <v>2000</v>
+        <v>138000</v>
       </c>
       <c r="N66" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -16764,7 +16762,7 @@
         <v>10</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
         <v>4</v>
@@ -16781,10 +16779,10 @@
       </c>
       <c r="H67">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>4900</v>
+        <v>2000</v>
       </c>
       <c r="I67">
-        <v>4900</v>
+        <v>2000</v>
       </c>
       <c r="N67" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -16796,7 +16794,7 @@
         <v>10</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
@@ -16806,17 +16804,17 @@
       </c>
       <c r="E68">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>25992</v>
+        <v>1000</v>
       </c>
       <c r="F68">
-        <v>25992.471000000001</v>
+        <v>1000</v>
       </c>
       <c r="H68">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>54791</v>
+        <v>2000</v>
       </c>
       <c r="I68">
-        <v>54790.053999999996</v>
+        <v>2000</v>
       </c>
       <c r="N68" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -16828,7 +16826,7 @@
         <v>10</v>
       </c>
       <c r="B69" t="s">
-        <v>260</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
@@ -16838,17 +16836,21 @@
       </c>
       <c r="E69">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H69">
-        <v>54000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>4900</v>
+      </c>
+      <c r="I69">
+        <v>4900</v>
       </c>
       <c r="N69" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -16856,7 +16858,7 @@
         <v>10</v>
       </c>
       <c r="B70" t="s">
-        <v>261</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
         <v>4</v>
@@ -16866,26 +16868,21 @@
       </c>
       <c r="E70">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>25992</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
+        <v>25992.471000000001</v>
       </c>
       <c r="H70">
-        <v>54000</v>
-      </c>
-      <c r="J70" t="s">
-        <v>257</v>
-      </c>
-      <c r="M70" t="s">
-        <v>257</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>54791</v>
+      </c>
+      <c r="I70">
+        <v>54790.053999999996</v>
       </c>
       <c r="N70" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -16893,7 +16890,7 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
@@ -16910,12 +16907,6 @@
       </c>
       <c r="H71">
         <v>54000</v>
-      </c>
-      <c r="J71" t="s">
-        <v>257</v>
-      </c>
-      <c r="L71" t="s">
-        <v>257</v>
       </c>
       <c r="N71" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -16927,7 +16918,7 @@
         <v>10</v>
       </c>
       <c r="B72" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C72" t="s">
         <v>4</v>
@@ -16937,10 +16928,13 @@
       </c>
       <c r="E72">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>540</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>540</v>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
       </c>
       <c r="H72">
         <v>54000</v>
@@ -16948,20 +16942,20 @@
       <c r="J72" t="s">
         <v>257</v>
       </c>
-      <c r="L72" t="s">
+      <c r="M72" t="s">
         <v>257</v>
       </c>
       <c r="N72" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="86" t="s">
-        <v>241</v>
+      <c r="B73" t="s">
+        <v>262</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
@@ -16971,10 +16965,10 @@
       </c>
       <c r="E73">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="F73">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="H73">
         <v>54000</v>
@@ -16982,23 +16976,20 @@
       <c r="J73" t="s">
         <v>257</v>
       </c>
-      <c r="K73" t="s">
-        <v>257</v>
-      </c>
       <c r="L73" t="s">
         <v>257</v>
       </c>
       <c r="N73" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="86" t="s">
-        <v>243</v>
+      <c r="B74" t="s">
+        <v>239</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
@@ -17008,18 +16999,15 @@
       </c>
       <c r="E74">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="F74">
-        <v>340</v>
+        <v>540</v>
       </c>
       <c r="H74">
         <v>54000</v>
       </c>
       <c r="J74" t="s">
-        <v>257</v>
-      </c>
-      <c r="K74" t="s">
         <v>257</v>
       </c>
       <c r="L74" t="s">
@@ -17034,8 +17022,8 @@
       <c r="A75" t="s">
         <v>10</v>
       </c>
-      <c r="B75" t="s">
-        <v>261</v>
+      <c r="B75" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
@@ -17045,34 +17033,34 @@
       </c>
       <c r="E75">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="H75">
         <v>54000</v>
       </c>
       <c r="J75" t="s">
-        <v>258</v>
-      </c>
-      <c r="M75" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="K75" t="s">
+        <v>257</v>
+      </c>
+      <c r="L75" t="s">
+        <v>257</v>
       </c>
       <c r="N75" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
         <v>10</v>
       </c>
-      <c r="B76" t="s">
-        <v>262</v>
+      <c r="B76" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C76" t="s">
         <v>4</v>
@@ -17082,23 +17070,26 @@
       </c>
       <c r="E76">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="H76">
         <v>54000</v>
       </c>
       <c r="J76" t="s">
-        <v>258</v>
+        <v>257</v>
+      </c>
+      <c r="K76" t="s">
+        <v>257</v>
       </c>
       <c r="L76" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N76" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -17106,7 +17097,7 @@
         <v>10</v>
       </c>
       <c r="B77" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C77" t="s">
         <v>4</v>
@@ -17116,10 +17107,13 @@
       </c>
       <c r="E77">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>150</v>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
       </c>
       <c r="H77">
         <v>54000</v>
@@ -17127,20 +17121,20 @@
       <c r="J77" t="s">
         <v>258</v>
       </c>
-      <c r="L77" t="s">
+      <c r="M77" t="s">
         <v>258</v>
       </c>
       <c r="N77" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="86" t="s">
-        <v>241</v>
+      <c r="B78" t="s">
+        <v>262</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
@@ -17150,10 +17144,10 @@
       </c>
       <c r="E78">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="F78">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="H78">
         <v>54000</v>
@@ -17161,23 +17155,20 @@
       <c r="J78" t="s">
         <v>258</v>
       </c>
-      <c r="K78" t="s">
-        <v>258</v>
-      </c>
       <c r="L78" t="s">
         <v>258</v>
       </c>
       <c r="N78" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="86" t="s">
-        <v>243</v>
+      <c r="B79" t="s">
+        <v>239</v>
       </c>
       <c r="C79" t="s">
         <v>4</v>
@@ -17187,18 +17178,15 @@
       </c>
       <c r="E79">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="F79">
-        <v>280</v>
+        <v>150</v>
       </c>
       <c r="H79">
         <v>54000</v>
       </c>
       <c r="J79" t="s">
-        <v>258</v>
-      </c>
-      <c r="K79" t="s">
         <v>258</v>
       </c>
       <c r="L79" t="s">
@@ -17213,8 +17201,8 @@
       <c r="A80" t="s">
         <v>10</v>
       </c>
-      <c r="B80" t="s">
-        <v>261</v>
+      <c r="B80" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
@@ -17224,34 +17212,34 @@
       </c>
       <c r="E80">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="H80">
         <v>54000</v>
       </c>
       <c r="J80" t="s">
-        <v>259</v>
-      </c>
-      <c r="M80" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="K80" t="s">
+        <v>258</v>
+      </c>
+      <c r="L80" t="s">
+        <v>258</v>
       </c>
       <c r="N80" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
         <v>10</v>
       </c>
-      <c r="B81" t="s">
-        <v>262</v>
+      <c r="B81" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C81" t="s">
         <v>4</v>
@@ -17261,23 +17249,26 @@
       </c>
       <c r="E81">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="H81">
         <v>54000</v>
       </c>
       <c r="J81" t="s">
-        <v>259</v>
+        <v>258</v>
+      </c>
+      <c r="K81" t="s">
+        <v>258</v>
       </c>
       <c r="L81" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N81" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -17285,7 +17276,7 @@
         <v>10</v>
       </c>
       <c r="B82" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C82" t="s">
         <v>4</v>
@@ -17295,10 +17286,13 @@
       </c>
       <c r="E82">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F82">
-        <v>180</v>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
       </c>
       <c r="H82">
         <v>54000</v>
@@ -17306,20 +17300,20 @@
       <c r="J82" t="s">
         <v>259</v>
       </c>
-      <c r="L82" t="s">
+      <c r="M82" t="s">
         <v>259</v>
       </c>
       <c r="N82" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="86" t="s">
-        <v>241</v>
+      <c r="B83" t="s">
+        <v>262</v>
       </c>
       <c r="C83" t="s">
         <v>4</v>
@@ -17329,10 +17323,10 @@
       </c>
       <c r="E83">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="H83">
         <v>54000</v>
@@ -17340,23 +17334,20 @@
       <c r="J83" t="s">
         <v>259</v>
       </c>
-      <c r="K83" t="s">
-        <v>259</v>
-      </c>
       <c r="L83" t="s">
         <v>259</v>
       </c>
       <c r="N83" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="A84" t="s">
         <v>10</v>
       </c>
-      <c r="B84" s="86" t="s">
-        <v>243</v>
+      <c r="B84" t="s">
+        <v>239</v>
       </c>
       <c r="C84" t="s">
         <v>4</v>
@@ -17377,9 +17368,6 @@
       <c r="J84" t="s">
         <v>259</v>
       </c>
-      <c r="K84" t="s">
-        <v>259</v>
-      </c>
       <c r="L84" t="s">
         <v>259</v>
       </c>
@@ -17392,8 +17380,8 @@
       <c r="A85" t="s">
         <v>10</v>
       </c>
-      <c r="B85" t="s">
-        <v>261</v>
+      <c r="B85" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C85" t="s">
         <v>4</v>
@@ -17403,34 +17391,34 @@
       </c>
       <c r="E85">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H85">
         <v>54000</v>
       </c>
       <c r="J85" t="s">
-        <v>263</v>
-      </c>
-      <c r="M85" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="K85" t="s">
+        <v>259</v>
+      </c>
+      <c r="L85" t="s">
+        <v>259</v>
       </c>
       <c r="N85" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" t="s">
         <v>10</v>
       </c>
-      <c r="B86" t="s">
-        <v>262</v>
+      <c r="B86" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C86" t="s">
         <v>4</v>
@@ -17440,23 +17428,26 @@
       </c>
       <c r="E86">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="H86">
         <v>54000</v>
       </c>
       <c r="J86" t="s">
-        <v>263</v>
+        <v>259</v>
+      </c>
+      <c r="K86" t="s">
+        <v>259</v>
       </c>
       <c r="L86" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="N86" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -17464,7 +17455,7 @@
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C87" t="s">
         <v>4</v>
@@ -17474,10 +17465,13 @@
       </c>
       <c r="E87">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>145</v>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
       </c>
       <c r="H87">
         <v>54000</v>
@@ -17485,20 +17479,20 @@
       <c r="J87" t="s">
         <v>263</v>
       </c>
-      <c r="L87" t="s">
+      <c r="M87" t="s">
         <v>263</v>
       </c>
       <c r="N87" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" t="s">
         <v>10</v>
       </c>
-      <c r="B88" s="86" t="s">
-        <v>241</v>
+      <c r="B88" t="s">
+        <v>262</v>
       </c>
       <c r="C88" t="s">
         <v>4</v>
@@ -17508,10 +17502,10 @@
       </c>
       <c r="E88">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H88">
         <v>54000</v>
@@ -17519,23 +17513,20 @@
       <c r="J88" t="s">
         <v>263</v>
       </c>
-      <c r="K88" t="s">
-        <v>263</v>
-      </c>
       <c r="L88" t="s">
         <v>263</v>
       </c>
       <c r="N88" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="A89" t="s">
         <v>10</v>
       </c>
-      <c r="B89" s="86" t="s">
-        <v>243</v>
+      <c r="B89" t="s">
+        <v>239</v>
       </c>
       <c r="C89" t="s">
         <v>4</v>
@@ -17545,18 +17536,15 @@
       </c>
       <c r="E89">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="F89">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="H89">
         <v>54000</v>
       </c>
       <c r="J89" t="s">
-        <v>263</v>
-      </c>
-      <c r="K89" t="s">
         <v>263</v>
       </c>
       <c r="L89" t="s">
@@ -17571,8 +17559,8 @@
       <c r="A90" t="s">
         <v>10</v>
       </c>
-      <c r="B90" t="s">
-        <v>261</v>
+      <c r="B90" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C90" t="s">
         <v>4</v>
@@ -17582,34 +17570,34 @@
       </c>
       <c r="E90">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H90">
         <v>54000</v>
       </c>
       <c r="J90" t="s">
-        <v>264</v>
-      </c>
-      <c r="M90" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="K90" t="s">
+        <v>263</v>
+      </c>
+      <c r="L90" t="s">
+        <v>263</v>
       </c>
       <c r="N90" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="A91" t="s">
         <v>10</v>
       </c>
-      <c r="B91" t="s">
-        <v>262</v>
+      <c r="B91" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C91" t="s">
         <v>4</v>
@@ -17619,23 +17607,26 @@
       </c>
       <c r="E91">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H91">
         <v>54000</v>
       </c>
       <c r="J91" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="K91" t="s">
+        <v>263</v>
       </c>
       <c r="L91" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="N91" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -17643,7 +17634,7 @@
         <v>10</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C92" t="s">
         <v>4</v>
@@ -17653,10 +17644,13 @@
       </c>
       <c r="E92">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>140</v>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
       </c>
       <c r="H92">
         <v>54000</v>
@@ -17664,20 +17658,20 @@
       <c r="J92" t="s">
         <v>264</v>
       </c>
-      <c r="L92" t="s">
+      <c r="M92" t="s">
         <v>264</v>
       </c>
       <c r="N92" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="A93" t="s">
         <v>10</v>
       </c>
-      <c r="B93" s="86" t="s">
-        <v>241</v>
+      <c r="B93" t="s">
+        <v>262</v>
       </c>
       <c r="C93" t="s">
         <v>4</v>
@@ -17687,10 +17681,10 @@
       </c>
       <c r="E93">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>54000</v>
@@ -17698,23 +17692,20 @@
       <c r="J93" t="s">
         <v>264</v>
       </c>
-      <c r="K93" t="s">
-        <v>264</v>
-      </c>
       <c r="L93" t="s">
         <v>264</v>
       </c>
       <c r="N93" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="A94" t="s">
         <v>10</v>
       </c>
-      <c r="B94" s="86" t="s">
-        <v>243</v>
+      <c r="B94" t="s">
+        <v>239</v>
       </c>
       <c r="C94" t="s">
         <v>4</v>
@@ -17724,18 +17715,15 @@
       </c>
       <c r="E94">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="F94">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="H94">
         <v>54000</v>
       </c>
       <c r="J94" t="s">
-        <v>264</v>
-      </c>
-      <c r="K94" t="s">
         <v>264</v>
       </c>
       <c r="L94" t="s">
@@ -17750,8 +17738,8 @@
       <c r="A95" t="s">
         <v>10</v>
       </c>
-      <c r="B95" t="s">
-        <v>261</v>
+      <c r="B95" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C95" t="s">
         <v>4</v>
@@ -17761,34 +17749,34 @@
       </c>
       <c r="E95">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H95">
         <v>54000</v>
       </c>
       <c r="J95" t="s">
-        <v>267</v>
-      </c>
-      <c r="M95" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="K95" t="s">
+        <v>264</v>
+      </c>
+      <c r="L95" t="s">
+        <v>264</v>
       </c>
       <c r="N95" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" t="s">
         <v>10</v>
       </c>
-      <c r="B96" t="s">
-        <v>262</v>
+      <c r="B96" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C96" t="s">
         <v>4</v>
@@ -17798,23 +17786,26 @@
       </c>
       <c r="E96">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="H96">
         <v>54000</v>
       </c>
       <c r="J96" t="s">
-        <v>267</v>
+        <v>264</v>
+      </c>
+      <c r="K96" t="s">
+        <v>264</v>
       </c>
       <c r="L96" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N96" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -17822,7 +17813,7 @@
         <v>10</v>
       </c>
       <c r="B97" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C97" t="s">
         <v>4</v>
@@ -17832,10 +17823,13 @@
       </c>
       <c r="E97">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="F97">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
       </c>
       <c r="H97">
         <v>54000</v>
@@ -17843,20 +17837,20 @@
       <c r="J97" t="s">
         <v>267</v>
       </c>
-      <c r="L97" t="s">
+      <c r="M97" t="s">
         <v>267</v>
       </c>
       <c r="N97" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="86" t="s">
-        <v>241</v>
+      <c r="B98" t="s">
+        <v>262</v>
       </c>
       <c r="C98" t="s">
         <v>4</v>
@@ -17866,10 +17860,10 @@
       </c>
       <c r="E98">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F98">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>54000</v>
@@ -17877,23 +17871,20 @@
       <c r="J98" t="s">
         <v>267</v>
       </c>
-      <c r="K98" t="s">
-        <v>267</v>
-      </c>
       <c r="L98" t="s">
         <v>267</v>
       </c>
       <c r="N98" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="86" t="s">
-        <v>243</v>
+      <c r="B99" t="s">
+        <v>239</v>
       </c>
       <c r="C99" t="s">
         <v>4</v>
@@ -17903,18 +17894,15 @@
       </c>
       <c r="E99">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="F99">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="H99">
         <v>54000</v>
       </c>
       <c r="J99" t="s">
-        <v>267</v>
-      </c>
-      <c r="K99" t="s">
         <v>267</v>
       </c>
       <c r="L99" t="s">
@@ -17929,8 +17917,8 @@
       <c r="A100" t="s">
         <v>10</v>
       </c>
-      <c r="B100" t="s">
-        <v>261</v>
+      <c r="B100" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C100" t="s">
         <v>4</v>
@@ -17940,34 +17928,34 @@
       </c>
       <c r="E100">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H100">
         <v>54000</v>
       </c>
       <c r="J100" t="s">
-        <v>265</v>
-      </c>
-      <c r="M100" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="K100" t="s">
+        <v>267</v>
+      </c>
+      <c r="L100" t="s">
+        <v>267</v>
       </c>
       <c r="N100" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:14">
       <c r="A101" t="s">
         <v>10</v>
       </c>
-      <c r="B101" t="s">
-        <v>262</v>
+      <c r="B101" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C101" t="s">
         <v>4</v>
@@ -17977,23 +17965,26 @@
       </c>
       <c r="E101">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="H101">
         <v>54000</v>
       </c>
       <c r="J101" t="s">
-        <v>265</v>
+        <v>267</v>
+      </c>
+      <c r="K101" t="s">
+        <v>267</v>
       </c>
       <c r="L101" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N101" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -18001,7 +17992,7 @@
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C102" t="s">
         <v>4</v>
@@ -18011,10 +18002,13 @@
       </c>
       <c r="E102">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>120</v>
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
       </c>
       <c r="H102">
         <v>54000</v>
@@ -18022,20 +18016,20 @@
       <c r="J102" t="s">
         <v>265</v>
       </c>
-      <c r="L102" t="s">
+      <c r="M102" t="s">
         <v>265</v>
       </c>
       <c r="N102" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:14">
       <c r="A103" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="86" t="s">
-        <v>241</v>
+      <c r="B103" t="s">
+        <v>262</v>
       </c>
       <c r="C103" t="s">
         <v>4</v>
@@ -18045,10 +18039,10 @@
       </c>
       <c r="E103">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H103">
         <v>54000</v>
@@ -18056,23 +18050,20 @@
       <c r="J103" t="s">
         <v>265</v>
       </c>
-      <c r="K103" t="s">
-        <v>265</v>
-      </c>
       <c r="L103" t="s">
         <v>265</v>
       </c>
       <c r="N103" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:14">
       <c r="A104" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="86" t="s">
-        <v>243</v>
+      <c r="B104" t="s">
+        <v>239</v>
       </c>
       <c r="C104" t="s">
         <v>4</v>
@@ -18082,18 +18073,15 @@
       </c>
       <c r="E104">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="F104">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="H104">
         <v>54000</v>
       </c>
       <c r="J104" t="s">
-        <v>265</v>
-      </c>
-      <c r="K104" t="s">
         <v>265</v>
       </c>
       <c r="L104" t="s">
@@ -18108,8 +18096,8 @@
       <c r="A105" t="s">
         <v>10</v>
       </c>
-      <c r="B105" t="s">
-        <v>261</v>
+      <c r="B105" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C105" t="s">
         <v>4</v>
@@ -18119,34 +18107,34 @@
       </c>
       <c r="E105">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H105">
         <v>54000</v>
       </c>
       <c r="J105" t="s">
-        <v>266</v>
-      </c>
-      <c r="M105" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="K105" t="s">
+        <v>265</v>
+      </c>
+      <c r="L105" t="s">
+        <v>265</v>
       </c>
       <c r="N105" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:14">
       <c r="A106" t="s">
         <v>10</v>
       </c>
-      <c r="B106" t="s">
-        <v>262</v>
+      <c r="B106" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C106" t="s">
         <v>4</v>
@@ -18156,23 +18144,26 @@
       </c>
       <c r="E106">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H106">
         <v>54000</v>
       </c>
       <c r="J106" t="s">
-        <v>266</v>
+        <v>265</v>
+      </c>
+      <c r="K106" t="s">
+        <v>265</v>
       </c>
       <c r="L106" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="N106" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -18180,7 +18171,7 @@
         <v>10</v>
       </c>
       <c r="B107" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C107" t="s">
         <v>4</v>
@@ -18190,10 +18181,13 @@
       </c>
       <c r="E107">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>1043</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1043</v>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
       </c>
       <c r="H107">
         <v>54000</v>
@@ -18201,20 +18195,20 @@
       <c r="J107" t="s">
         <v>266</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>266</v>
       </c>
       <c r="N107" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" t="s">
         <v>10</v>
       </c>
-      <c r="B108" s="86" t="s">
-        <v>241</v>
+      <c r="B108" t="s">
+        <v>262</v>
       </c>
       <c r="C108" t="s">
         <v>4</v>
@@ -18224,10 +18218,10 @@
       </c>
       <c r="E108">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="H108">
         <v>54000</v>
@@ -18235,23 +18229,20 @@
       <c r="J108" t="s">
         <v>266</v>
       </c>
-      <c r="K108" t="s">
-        <v>266</v>
-      </c>
       <c r="L108" t="s">
         <v>266</v>
       </c>
       <c r="N108" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" t="s">
         <v>10</v>
       </c>
-      <c r="B109" s="86" t="s">
-        <v>243</v>
+      <c r="B109" t="s">
+        <v>239</v>
       </c>
       <c r="C109" t="s">
         <v>4</v>
@@ -18261,18 +18252,15 @@
       </c>
       <c r="E109">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>626</v>
+        <v>1043</v>
       </c>
       <c r="F109">
-        <v>626</v>
+        <v>1043</v>
       </c>
       <c r="H109">
         <v>54000</v>
       </c>
       <c r="J109" t="s">
-        <v>266</v>
-      </c>
-      <c r="K109" t="s">
         <v>266</v>
       </c>
       <c r="L109" t="s">
@@ -18287,8 +18275,8 @@
       <c r="A110" t="s">
         <v>10</v>
       </c>
-      <c r="B110" t="s">
-        <v>40</v>
+      <c r="B110" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C110" t="s">
         <v>4</v>
@@ -18298,81 +18286,91 @@
       </c>
       <c r="E110">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
+        <v>626</v>
+      </c>
+      <c r="F110">
+        <v>626</v>
+      </c>
+      <c r="H110">
+        <v>54000</v>
+      </c>
+      <c r="J110" t="s">
+        <v>266</v>
+      </c>
+      <c r="K110" t="s">
+        <v>266</v>
+      </c>
+      <c r="L110" t="s">
+        <v>266</v>
+      </c>
+      <c r="N110" t="b">
+        <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B111" s="86" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111">
+        <v>2040</v>
+      </c>
+      <c r="E111">
+        <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
+        <v>626</v>
+      </c>
+      <c r="F111">
+        <v>626</v>
+      </c>
+      <c r="H111">
+        <v>54000</v>
+      </c>
+      <c r="J111" t="s">
+        <v>266</v>
+      </c>
+      <c r="K111" t="s">
+        <v>266</v>
+      </c>
+      <c r="L111" t="s">
+        <v>266</v>
+      </c>
+      <c r="N111" t="b">
+        <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112">
+        <v>2040</v>
+      </c>
+      <c r="E112">
+        <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
         <v>10695</v>
       </c>
-      <c r="F110">
+      <c r="F112">
         <v>10695.187</v>
       </c>
-      <c r="H110">
+      <c r="H112">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
         <v>21391</v>
       </c>
-      <c r="I110">
+      <c r="I112">
         <v>21390.374</v>
-      </c>
-      <c r="N110" t="b">
-        <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14">
-      <c r="A111" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" t="s">
-        <v>36</v>
-      </c>
-      <c r="C111" t="s">
-        <v>4</v>
-      </c>
-      <c r="D111">
-        <v>2040</v>
-      </c>
-      <c r="E111">
-        <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>470</v>
-      </c>
-      <c r="F111">
-        <v>470</v>
-      </c>
-      <c r="H111">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>5177</v>
-      </c>
-      <c r="I111">
-        <v>5177</v>
-      </c>
-      <c r="N111" t="b">
-        <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
-      <c r="A112" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" t="s">
-        <v>37</v>
-      </c>
-      <c r="C112" t="s">
-        <v>4</v>
-      </c>
-      <c r="D112">
-        <v>2040</v>
-      </c>
-      <c r="E112">
-        <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>470</v>
-      </c>
-      <c r="F112">
-        <v>470</v>
-      </c>
-      <c r="H112">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>5177</v>
-      </c>
-      <c r="I112">
-        <v>5177</v>
       </c>
       <c r="N112" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -18384,7 +18382,7 @@
         <v>11</v>
       </c>
       <c r="B113" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
         <v>4</v>
@@ -18394,17 +18392,17 @@
       </c>
       <c r="E113">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>3875</v>
+        <v>470</v>
       </c>
       <c r="F113">
-        <v>3875</v>
+        <v>470</v>
       </c>
       <c r="H113">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>26375</v>
+        <v>5177</v>
       </c>
       <c r="I113">
-        <v>26375</v>
+        <v>5177</v>
       </c>
       <c r="N113" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -18416,7 +18414,7 @@
         <v>11</v>
       </c>
       <c r="B114" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C114" t="s">
         <v>4</v>
@@ -18426,17 +18424,17 @@
       </c>
       <c r="E114">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>31328</v>
+        <v>470</v>
       </c>
       <c r="F114">
-        <v>31328.799999999999</v>
+        <v>470</v>
       </c>
       <c r="H114">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>44450</v>
+        <v>5177</v>
       </c>
       <c r="I114">
-        <v>44449.530000000013</v>
+        <v>5177</v>
       </c>
       <c r="N114" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -18448,7 +18446,7 @@
         <v>11</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C115" t="s">
         <v>4</v>
@@ -18458,17 +18456,17 @@
       </c>
       <c r="E115">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>42622</v>
+        <v>3875</v>
       </c>
       <c r="F115">
-        <v>42622.19</v>
+        <v>3875</v>
       </c>
       <c r="H115">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>67010</v>
+        <v>26375</v>
       </c>
       <c r="I115">
-        <v>67009.8</v>
+        <v>26375</v>
       </c>
       <c r="N115" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -18480,7 +18478,7 @@
         <v>11</v>
       </c>
       <c r="B116" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="C116" t="s">
         <v>4</v>
@@ -18490,25 +18488,29 @@
       </c>
       <c r="E116">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>31328</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>31328.799999999999</v>
       </c>
       <c r="H116">
-        <v>67000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>44450</v>
+      </c>
+      <c r="I116">
+        <v>44449.530000000013</v>
       </c>
       <c r="N116" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:14">
       <c r="A117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B117" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C117" t="s">
         <v>4</v>
@@ -18518,17 +18520,17 @@
       </c>
       <c r="E117">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>1200</v>
+        <v>42622</v>
       </c>
       <c r="F117">
-        <v>1200</v>
+        <v>42622.19</v>
       </c>
       <c r="H117">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>2200</v>
+        <v>67010</v>
       </c>
       <c r="I117">
-        <v>2200</v>
+        <v>67009.8</v>
       </c>
       <c r="N117" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -18537,10 +18539,10 @@
     </row>
     <row r="118" spans="1:14">
       <c r="A118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B118" t="s">
-        <v>37</v>
+        <v>260</v>
       </c>
       <c r="C118" t="s">
         <v>4</v>
@@ -18550,21 +18552,17 @@
       </c>
       <c r="E118">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="H118">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>2200</v>
-      </c>
-      <c r="I118">
-        <v>2200</v>
+        <v>67000</v>
       </c>
       <c r="N118" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -18572,7 +18570,7 @@
         <v>12</v>
       </c>
       <c r="B119" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C119" t="s">
         <v>4</v>
@@ -18582,17 +18580,17 @@
       </c>
       <c r="E119">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F119">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H119">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>4200</v>
+        <v>2200</v>
       </c>
       <c r="I119">
-        <v>4200</v>
+        <v>2200</v>
       </c>
       <c r="N119" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -18604,7 +18602,7 @@
         <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C120" t="s">
         <v>4</v>
@@ -18614,17 +18612,17 @@
       </c>
       <c r="E120">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>5000</v>
+        <v>1200</v>
       </c>
       <c r="F120">
-        <v>5000.0200000000004</v>
+        <v>1200</v>
       </c>
       <c r="H120">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>5431</v>
+        <v>2200</v>
       </c>
       <c r="I120">
-        <v>5430.02</v>
+        <v>2200</v>
       </c>
       <c r="N120" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -18636,7 +18634,7 @@
         <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C121" t="s">
         <v>4</v>
@@ -18646,17 +18644,17 @@
       </c>
       <c r="E121">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="F121">
-        <v>5000.3</v>
+        <v>1400</v>
       </c>
       <c r="H121">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>5601</v>
+        <v>4200</v>
       </c>
       <c r="I121">
-        <v>5600.3</v>
+        <v>4200</v>
       </c>
       <c r="N121" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -18668,7 +18666,7 @@
         <v>12</v>
       </c>
       <c r="B122" t="s">
-        <v>260</v>
+        <v>39</v>
       </c>
       <c r="C122" t="s">
         <v>4</v>
@@ -18678,17 +18676,21 @@
       </c>
       <c r="E122">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>5000.0200000000004</v>
       </c>
       <c r="H122">
-        <v>5600</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>5431</v>
+      </c>
+      <c r="I122">
+        <v>5430.02</v>
       </c>
       <c r="N122" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -18696,7 +18698,7 @@
         <v>12</v>
       </c>
       <c r="B123" t="s">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="C123" t="s">
         <v>4</v>
@@ -18706,17 +18708,21 @@
       </c>
       <c r="E123">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>5000.3</v>
       </c>
       <c r="H123">
-        <v>5600</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>5601</v>
+      </c>
+      <c r="I123">
+        <v>5600.3</v>
       </c>
       <c r="N123" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -18724,7 +18730,7 @@
         <v>12</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C124" t="s">
         <v>4</v>
@@ -18752,7 +18758,7 @@
         <v>12</v>
       </c>
       <c r="B125" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="C125" t="s">
         <v>4</v>
@@ -18779,8 +18785,8 @@
       <c r="A126" t="s">
         <v>12</v>
       </c>
-      <c r="B126" s="86" t="s">
-        <v>241</v>
+      <c r="B126" t="s">
+        <v>262</v>
       </c>
       <c r="C126" t="s">
         <v>4</v>
@@ -18790,25 +18796,25 @@
       </c>
       <c r="E126">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="F126">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="H126">
         <v>5600</v>
       </c>
       <c r="N126" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" t="s">
         <v>12</v>
       </c>
-      <c r="B127" s="86" t="s">
-        <v>243</v>
+      <c r="B127" t="s">
+        <v>239</v>
       </c>
       <c r="C127" t="s">
         <v>4</v>
@@ -18818,25 +18824,25 @@
       </c>
       <c r="E127">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="F127">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="H127">
         <v>5600</v>
       </c>
       <c r="N127" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="B128" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C128" t="s">
         <v>4</v>
@@ -18846,17 +18852,13 @@
       </c>
       <c r="E128">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>500</v>
+        <v>156</v>
       </c>
       <c r="F128">
-        <v>500</v>
+        <v>156</v>
       </c>
       <c r="H128">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>1000</v>
-      </c>
-      <c r="I128">
-        <v>1000</v>
+        <v>5600</v>
       </c>
       <c r="N128" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -18865,10 +18867,10 @@
     </row>
     <row r="129" spans="1:14">
       <c r="A129" t="s">
-        <v>13</v>
-      </c>
-      <c r="B129" t="s">
-        <v>39</v>
+        <v>12</v>
+      </c>
+      <c r="B129" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C129" t="s">
         <v>4</v>
@@ -18878,17 +18880,13 @@
       </c>
       <c r="E129">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="F129">
-        <v>237</v>
+        <v>156</v>
       </c>
       <c r="H129">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>352</v>
-      </c>
-      <c r="I129">
-        <v>352</v>
+        <v>5600</v>
       </c>
       <c r="N129" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -18900,7 +18898,7 @@
         <v>13</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C130" t="s">
         <v>4</v>
@@ -18910,21 +18908,20 @@
       </c>
       <c r="E130">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>146</v>
+        <v>80</v>
       </c>
       <c r="F130">
-        <v>146.03</v>
+        <v>80</v>
       </c>
       <c r="H130">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>387</v>
+        <v>1000</v>
       </c>
       <c r="I130">
-        <v>386.03</v>
+        <v>80</v>
       </c>
       <c r="N130" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -18932,7 +18929,7 @@
         <v>13</v>
       </c>
       <c r="B131" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="C131" t="s">
         <v>4</v>
@@ -18942,13 +18939,16 @@
       </c>
       <c r="E131">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H131">
         <v>1000</v>
+      </c>
+      <c r="I131">
+        <v>80</v>
       </c>
       <c r="N131" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -18960,7 +18960,7 @@
         <v>13</v>
       </c>
       <c r="B132" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="C132" t="s">
         <v>4</v>
@@ -18970,17 +18970,21 @@
       </c>
       <c r="E132">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H132">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>1000</v>
+      </c>
+      <c r="I132">
         <v>1000</v>
       </c>
       <c r="N132" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -18988,7 +18992,7 @@
         <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="C133" t="s">
         <v>4</v>
@@ -18998,17 +19002,21 @@
       </c>
       <c r="E133">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="H133">
-        <v>1000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>352</v>
+      </c>
+      <c r="I133">
+        <v>352</v>
       </c>
       <c r="N133" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -19016,7 +19024,7 @@
         <v>13</v>
       </c>
       <c r="B134" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="C134" t="s">
         <v>4</v>
@@ -19026,25 +19034,29 @@
       </c>
       <c r="E134">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>146.03</v>
       </c>
       <c r="H134">
-        <v>1000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>387</v>
+      </c>
+      <c r="I134">
+        <v>386.03</v>
       </c>
       <c r="N134" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" t="s">
         <v>13</v>
       </c>
-      <c r="B135" s="86" t="s">
-        <v>241</v>
+      <c r="B135" t="s">
+        <v>260</v>
       </c>
       <c r="C135" t="s">
         <v>4</v>
@@ -19054,25 +19066,25 @@
       </c>
       <c r="E135">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="H135">
         <v>1000</v>
       </c>
       <c r="N135" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:14">
       <c r="A136" t="s">
         <v>13</v>
       </c>
-      <c r="B136" s="86" t="s">
-        <v>243</v>
+      <c r="B136" t="s">
+        <v>261</v>
       </c>
       <c r="C136" t="s">
         <v>4</v>
@@ -19082,25 +19094,25 @@
       </c>
       <c r="E136">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="F136">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="H136">
         <v>1000</v>
       </c>
       <c r="N136" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:14">
       <c r="A137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B137" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="C137" t="s">
         <v>4</v>
@@ -19110,29 +19122,25 @@
       </c>
       <c r="E137">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>9331</v>
+        <v>0</v>
       </c>
       <c r="F137">
-        <v>9331</v>
+        <v>0</v>
       </c>
       <c r="H137">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>30817</v>
-      </c>
-      <c r="I137">
-        <v>30817</v>
+        <v>1000</v>
       </c>
       <c r="N137" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:14">
       <c r="A138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B138" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C138" t="s">
         <v>4</v>
@@ -19142,29 +19150,25 @@
       </c>
       <c r="E138">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>9331</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>9331</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>30817</v>
-      </c>
-      <c r="I138">
-        <v>30817</v>
+        <v>1000</v>
       </c>
       <c r="N138" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" t="s">
-        <v>14</v>
-      </c>
-      <c r="B139" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="B139" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C139" t="s">
         <v>4</v>
@@ -19174,17 +19178,13 @@
       </c>
       <c r="E139">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>16542</v>
+        <v>210</v>
       </c>
       <c r="F139">
-        <v>16542.5</v>
+        <v>210</v>
       </c>
       <c r="H139">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>35243</v>
-      </c>
-      <c r="I139">
-        <v>35242.5</v>
+        <v>1000</v>
       </c>
       <c r="N139" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -19193,10 +19193,10 @@
     </row>
     <row r="140" spans="1:14">
       <c r="A140" t="s">
-        <v>14</v>
-      </c>
-      <c r="B140" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="B140" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C140" t="s">
         <v>4</v>
@@ -19206,17 +19206,13 @@
       </c>
       <c r="E140">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>9100</v>
+        <v>210</v>
       </c>
       <c r="F140">
-        <v>9100.0499999999993</v>
+        <v>210</v>
       </c>
       <c r="H140">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>11426</v>
-      </c>
-      <c r="I140">
-        <v>11425.05</v>
+        <v>1000</v>
       </c>
       <c r="N140" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -19228,7 +19224,7 @@
         <v>14</v>
       </c>
       <c r="B141" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
         <v>4</v>
@@ -19238,17 +19234,17 @@
       </c>
       <c r="E141">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>59317</v>
+        <v>9331</v>
       </c>
       <c r="F141">
-        <v>59317.088000000003</v>
+        <v>9331</v>
       </c>
       <c r="H141">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>102415</v>
+        <v>30817</v>
       </c>
       <c r="I141">
-        <v>102414.2</v>
+        <v>30817</v>
       </c>
       <c r="N141" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -19260,7 +19256,7 @@
         <v>14</v>
       </c>
       <c r="B142" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="C142" t="s">
         <v>4</v>
@@ -19270,22 +19266,26 @@
       </c>
       <c r="E142">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>9331</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>9331</v>
       </c>
       <c r="H142">
-        <v>102000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>30817</v>
+      </c>
+      <c r="I142">
+        <v>30817</v>
       </c>
       <c r="N142" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B143" t="s">
         <v>38</v>
@@ -19298,17 +19298,17 @@
       </c>
       <c r="E143">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>16542</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>16542.5</v>
       </c>
       <c r="H143">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>2000</v>
+        <v>35243</v>
       </c>
       <c r="I143">
-        <v>2000</v>
+        <v>35242.5</v>
       </c>
       <c r="N143" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -19317,10 +19317,10 @@
     </row>
     <row r="144" spans="1:14">
       <c r="A144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C144" t="s">
         <v>4</v>
@@ -19330,17 +19330,17 @@
       </c>
       <c r="E144">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>1000</v>
+        <v>9100</v>
       </c>
       <c r="F144">
-        <v>1000</v>
+        <v>9100.0499999999993</v>
       </c>
       <c r="H144">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>2500</v>
+        <v>11426</v>
       </c>
       <c r="I144">
-        <v>2500</v>
+        <v>11425.05</v>
       </c>
       <c r="N144" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -19349,10 +19349,10 @@
     </row>
     <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B145" t="s">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="C145" t="s">
         <v>4</v>
@@ -19362,25 +19362,29 @@
       </c>
       <c r="E145">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>59317</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>59317.088000000003</v>
       </c>
       <c r="H145">
-        <v>2500</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>102415</v>
+      </c>
+      <c r="I145">
+        <v>102414.2</v>
       </c>
       <c r="N145" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B146" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C146" t="s">
         <v>4</v>
@@ -19396,7 +19400,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>2500</v>
+        <v>102000</v>
       </c>
       <c r="N146" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -19408,7 +19412,7 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="C147" t="s">
         <v>4</v>
@@ -19424,11 +19428,15 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>2500</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>2000</v>
+      </c>
+      <c r="I147">
+        <v>2000</v>
       </c>
       <c r="N147" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:14">
@@ -19436,7 +19444,7 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="C148" t="s">
         <v>4</v>
@@ -19446,25 +19454,29 @@
       </c>
       <c r="E148">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H148">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>2500</v>
+      </c>
+      <c r="I148">
         <v>2500</v>
       </c>
       <c r="N148" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" t="s">
         <v>15</v>
       </c>
-      <c r="B149" s="86" t="s">
-        <v>241</v>
+      <c r="B149" t="s">
+        <v>260</v>
       </c>
       <c r="C149" t="s">
         <v>4</v>
@@ -19491,8 +19503,8 @@
       <c r="A150" t="s">
         <v>15</v>
       </c>
-      <c r="B150" s="86" t="s">
-        <v>243</v>
+      <c r="B150" t="s">
+        <v>261</v>
       </c>
       <c r="C150" t="s">
         <v>4</v>
@@ -19517,10 +19529,10 @@
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="C151" t="s">
         <v>4</v>
@@ -19536,23 +19548,19 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>500</v>
-      </c>
-      <c r="I151">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="N151" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="C152" t="s">
         <v>4</v>
@@ -19562,29 +19570,25 @@
       </c>
       <c r="E152">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>1108</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1108.0899999999999</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>1859</v>
-      </c>
-      <c r="I152">
-        <v>1858.09</v>
+        <v>2500</v>
       </c>
       <c r="N152" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>16</v>
-      </c>
-      <c r="B153" t="s">
-        <v>260</v>
+        <v>15</v>
+      </c>
+      <c r="B153" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C153" t="s">
         <v>4</v>
@@ -19600,7 +19604,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1859</v>
+        <v>2500</v>
       </c>
       <c r="N153" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -19609,10 +19613,10 @@
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>16</v>
-      </c>
-      <c r="B154" t="s">
-        <v>261</v>
+        <v>15</v>
+      </c>
+      <c r="B154" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C154" t="s">
         <v>4</v>
@@ -19628,7 +19632,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>1859</v>
+        <v>2500</v>
       </c>
       <c r="N154" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -19640,7 +19644,7 @@
         <v>16</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="C155" t="s">
         <v>4</v>
@@ -19656,11 +19660,15 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>1859</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>500</v>
+      </c>
+      <c r="I155">
+        <v>500</v>
       </c>
       <c r="N155" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -19668,7 +19676,7 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="C156" t="s">
         <v>4</v>
@@ -19678,25 +19686,29 @@
       </c>
       <c r="E156">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1108.0899999999999</v>
       </c>
       <c r="H156">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
         <v>1859</v>
+      </c>
+      <c r="I156">
+        <v>1858.09</v>
       </c>
       <c r="N156" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" t="s">
         <v>16</v>
       </c>
-      <c r="B157" s="86" t="s">
-        <v>241</v>
+      <c r="B157" t="s">
+        <v>260</v>
       </c>
       <c r="C157" t="s">
         <v>4</v>
@@ -19723,8 +19735,8 @@
       <c r="A158" t="s">
         <v>16</v>
       </c>
-      <c r="B158" s="86" t="s">
-        <v>243</v>
+      <c r="B158" t="s">
+        <v>261</v>
       </c>
       <c r="C158" t="s">
         <v>4</v>
@@ -19749,10 +19761,10 @@
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="C159" t="s">
         <v>4</v>
@@ -19762,29 +19774,25 @@
       </c>
       <c r="E159">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>3003</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>3003.5</v>
+        <v>0</v>
       </c>
       <c r="H159">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>7504</v>
-      </c>
-      <c r="I159">
-        <v>7503.5</v>
+        <v>1859</v>
       </c>
       <c r="N159" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="C160" t="s">
         <v>4</v>
@@ -19794,29 +19802,25 @@
       </c>
       <c r="E160">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>2240</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>2240.56</v>
+        <v>0</v>
       </c>
       <c r="H160">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>2641</v>
-      </c>
-      <c r="I160">
-        <v>2640.56</v>
+        <v>1859</v>
       </c>
       <c r="N160" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" t="s">
-        <v>17</v>
-      </c>
-      <c r="B161" t="s">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="B161" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C161" t="s">
         <v>4</v>
@@ -19826,29 +19830,25 @@
       </c>
       <c r="E161">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H161">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>7500</v>
-      </c>
-      <c r="I161">
-        <v>7500</v>
+        <v>1859</v>
       </c>
       <c r="N161" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>17</v>
-      </c>
-      <c r="B162" t="s">
-        <v>260</v>
+        <v>16</v>
+      </c>
+      <c r="B162" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C162" t="s">
         <v>4</v>
@@ -19864,7 +19864,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>7500</v>
+        <v>1859</v>
       </c>
       <c r="N162" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -19876,7 +19876,7 @@
         <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="C163" t="s">
         <v>4</v>
@@ -19886,17 +19886,21 @@
       </c>
       <c r="E163">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>3003</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>3003.5</v>
       </c>
       <c r="H163">
-        <v>7500</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>7504</v>
+      </c>
+      <c r="I163">
+        <v>7503.5</v>
       </c>
       <c r="N163" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:14">
@@ -19904,7 +19908,7 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="C164" t="s">
         <v>4</v>
@@ -19914,17 +19918,21 @@
       </c>
       <c r="E164">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>2240</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>2240.56</v>
       </c>
       <c r="H164">
-        <v>7500</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>2641</v>
+      </c>
+      <c r="I164">
+        <v>2640.56</v>
       </c>
       <c r="N164" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -19932,7 +19940,7 @@
         <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="C165" t="s">
         <v>4</v>
@@ -19942,25 +19950,29 @@
       </c>
       <c r="E165">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F165">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="H165">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>7500</v>
+      </c>
+      <c r="I165">
         <v>7500</v>
       </c>
       <c r="N165" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" t="s">
         <v>17</v>
       </c>
-      <c r="B166" s="86" t="s">
-        <v>241</v>
+      <c r="B166" t="s">
+        <v>260</v>
       </c>
       <c r="C166" t="s">
         <v>4</v>
@@ -19987,8 +19999,8 @@
       <c r="A167" t="s">
         <v>17</v>
       </c>
-      <c r="B167" s="86" t="s">
-        <v>243</v>
+      <c r="B167" t="s">
+        <v>261</v>
       </c>
       <c r="C167" t="s">
         <v>4</v>
@@ -20013,10 +20025,10 @@
     </row>
     <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="C168" t="s">
         <v>4</v>
@@ -20026,29 +20038,25 @@
       </c>
       <c r="E168">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>10004</v>
+        <v>0</v>
       </c>
       <c r="F168">
-        <v>10004</v>
+        <v>0</v>
       </c>
       <c r="H168">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>10900</v>
-      </c>
-      <c r="I168">
-        <v>10900</v>
+        <v>7500</v>
       </c>
       <c r="N168" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="C169" t="s">
         <v>4</v>
@@ -20058,29 +20066,25 @@
       </c>
       <c r="E169">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>21663</v>
+        <v>0</v>
       </c>
       <c r="F169">
-        <v>21663.41</v>
+        <v>0</v>
       </c>
       <c r="H169">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>26001</v>
-      </c>
-      <c r="I169">
-        <v>26000.29</v>
+        <v>7500</v>
       </c>
       <c r="N169" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" t="s">
-        <v>18</v>
-      </c>
-      <c r="B170" t="s">
-        <v>260</v>
+        <v>17</v>
+      </c>
+      <c r="B170" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C170" t="s">
         <v>4</v>
@@ -20096,7 +20100,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>26000</v>
+        <v>7500</v>
       </c>
       <c r="N170" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -20105,10 +20109,10 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>18</v>
-      </c>
-      <c r="B171" t="s">
-        <v>261</v>
+        <v>17</v>
+      </c>
+      <c r="B171" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C171" t="s">
         <v>4</v>
@@ -20124,7 +20128,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>26000</v>
+        <v>7500</v>
       </c>
       <c r="N171" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -20136,7 +20140,7 @@
         <v>18</v>
       </c>
       <c r="B172" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="C172" t="s">
         <v>4</v>
@@ -20146,17 +20150,21 @@
       </c>
       <c r="E172">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>10004</v>
       </c>
       <c r="F172">
-        <v>0</v>
+        <v>10004</v>
       </c>
       <c r="H172">
-        <v>26000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>10900</v>
+      </c>
+      <c r="I172">
+        <v>10900</v>
       </c>
       <c r="N172" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:14">
@@ -20164,7 +20172,7 @@
         <v>18</v>
       </c>
       <c r="B173" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="C173" t="s">
         <v>4</v>
@@ -20174,25 +20182,29 @@
       </c>
       <c r="E173">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>21663</v>
       </c>
       <c r="F173">
-        <v>0</v>
+        <v>21663.41</v>
       </c>
       <c r="H173">
-        <v>26000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>26001</v>
+      </c>
+      <c r="I173">
+        <v>26000.29</v>
       </c>
       <c r="N173" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" t="s">
         <v>18</v>
       </c>
-      <c r="B174" s="86" t="s">
-        <v>241</v>
+      <c r="B174" t="s">
+        <v>260</v>
       </c>
       <c r="C174" t="s">
         <v>4</v>
@@ -20202,25 +20214,25 @@
       </c>
       <c r="E174">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>2120</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>2120</v>
+        <v>0</v>
       </c>
       <c r="H174">
         <v>26000</v>
       </c>
       <c r="N174" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" t="s">
         <v>18</v>
       </c>
-      <c r="B175" s="86" t="s">
-        <v>243</v>
+      <c r="B175" t="s">
+        <v>261</v>
       </c>
       <c r="C175" t="s">
         <v>4</v>
@@ -20230,25 +20242,25 @@
       </c>
       <c r="E175">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>2120</v>
+        <v>0</v>
       </c>
       <c r="F175">
-        <v>2120</v>
+        <v>0</v>
       </c>
       <c r="H175">
         <v>26000</v>
       </c>
       <c r="N175" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:14">
       <c r="A176" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="C176" t="s">
         <v>4</v>
@@ -20258,29 +20270,25 @@
       </c>
       <c r="E176">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>11.542999999999999</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>35</v>
-      </c>
-      <c r="I176">
-        <v>34.628</v>
+        <v>26000</v>
       </c>
       <c r="N176" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:14">
       <c r="A177" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B177" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C177" t="s">
         <v>4</v>
@@ -20290,29 +20298,25 @@
       </c>
       <c r="E177">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F177">
-        <v>11.542999999999999</v>
+        <v>0</v>
       </c>
       <c r="H177">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>35</v>
-      </c>
-      <c r="I177">
-        <v>34.628</v>
+        <v>26000</v>
       </c>
       <c r="N177" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:14">
       <c r="A178" t="s">
-        <v>19</v>
-      </c>
-      <c r="B178" t="s">
-        <v>39</v>
+        <v>18</v>
+      </c>
+      <c r="B178" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C178" t="s">
         <v>4</v>
@@ -20322,17 +20326,13 @@
       </c>
       <c r="E178">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>3580</v>
+        <v>2120</v>
       </c>
       <c r="F178">
-        <v>3580.5430000000001</v>
+        <v>2120</v>
       </c>
       <c r="H178">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>6500</v>
-      </c>
-      <c r="I178">
-        <v>6500</v>
+        <v>26000</v>
       </c>
       <c r="N178" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -20341,10 +20341,10 @@
     </row>
     <row r="179" spans="1:14">
       <c r="A179" t="s">
-        <v>19</v>
-      </c>
-      <c r="B179" t="s">
-        <v>260</v>
+        <v>18</v>
+      </c>
+      <c r="B179" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C179" t="s">
         <v>4</v>
@@ -20354,17 +20354,17 @@
       </c>
       <c r="E179">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>2120</v>
       </c>
       <c r="F179">
-        <v>0</v>
+        <v>2120</v>
       </c>
       <c r="H179">
-        <v>6500</v>
+        <v>26000</v>
       </c>
       <c r="N179" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:14">
@@ -20372,7 +20372,7 @@
         <v>19</v>
       </c>
       <c r="B180" t="s">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="C180" t="s">
         <v>4</v>
@@ -20382,17 +20382,21 @@
       </c>
       <c r="E180">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F180">
-        <v>0</v>
+        <v>11.542999999999999</v>
       </c>
       <c r="H180">
-        <v>6500</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>35</v>
+      </c>
+      <c r="I180">
+        <v>34.628</v>
       </c>
       <c r="N180" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:14">
@@ -20400,7 +20404,7 @@
         <v>19</v>
       </c>
       <c r="B181" t="s">
-        <v>262</v>
+        <v>37</v>
       </c>
       <c r="C181" t="s">
         <v>4</v>
@@ -20410,17 +20414,21 @@
       </c>
       <c r="E181">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F181">
-        <v>0</v>
+        <v>11.542999999999999</v>
       </c>
       <c r="H181">
-        <v>6500</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>35</v>
+      </c>
+      <c r="I181">
+        <v>34.628</v>
       </c>
       <c r="N181" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:14">
@@ -20428,7 +20436,7 @@
         <v>19</v>
       </c>
       <c r="B182" t="s">
-        <v>239</v>
+        <v>39</v>
       </c>
       <c r="C182" t="s">
         <v>4</v>
@@ -20438,25 +20446,29 @@
       </c>
       <c r="E182">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>3580</v>
       </c>
       <c r="F182">
-        <v>0</v>
+        <v>3580.5430000000001</v>
       </c>
       <c r="H182">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>6500</v>
+      </c>
+      <c r="I182">
         <v>6500</v>
       </c>
       <c r="N182" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:14">
       <c r="A183" t="s">
         <v>19</v>
       </c>
-      <c r="B183" s="86" t="s">
-        <v>241</v>
+      <c r="B183" t="s">
+        <v>260</v>
       </c>
       <c r="C183" t="s">
         <v>4</v>
@@ -20483,8 +20495,8 @@
       <c r="A184" t="s">
         <v>19</v>
       </c>
-      <c r="B184" s="86" t="s">
-        <v>243</v>
+      <c r="B184" t="s">
+        <v>261</v>
       </c>
       <c r="C184" t="s">
         <v>4</v>
@@ -20509,10 +20521,10 @@
     </row>
     <row r="185" spans="1:14">
       <c r="A185" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B185" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="C185" t="s">
         <v>4</v>
@@ -20522,29 +20534,25 @@
       </c>
       <c r="E185">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>11.13</v>
+        <v>0</v>
       </c>
       <c r="H185">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>34</v>
-      </c>
-      <c r="I185">
-        <v>33.389000000000003</v>
+        <v>6500</v>
       </c>
       <c r="N185" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:14">
       <c r="A186" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B186" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C186" t="s">
         <v>4</v>
@@ -20554,29 +20562,25 @@
       </c>
       <c r="E186">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>11.13</v>
+        <v>0</v>
       </c>
       <c r="H186">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>34</v>
-      </c>
-      <c r="I186">
-        <v>33.389000000000003</v>
+        <v>6500</v>
       </c>
       <c r="N186" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:14">
       <c r="A187" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" t="s">
-        <v>38</v>
+        <v>19</v>
+      </c>
+      <c r="B187" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C187" t="s">
         <v>4</v>
@@ -20592,23 +20596,19 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>1000</v>
-      </c>
-      <c r="I187">
-        <v>1000</v>
+        <v>6500</v>
       </c>
       <c r="N187" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" t="s">
-        <v>20</v>
-      </c>
-      <c r="B188" t="s">
-        <v>39</v>
+        <v>19</v>
+      </c>
+      <c r="B188" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C188" t="s">
         <v>4</v>
@@ -20618,21 +20618,17 @@
       </c>
       <c r="E188">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>8280</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>8280.4480000000003</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>10000</v>
-      </c>
-      <c r="I188">
-        <v>10000</v>
+        <v>6500</v>
       </c>
       <c r="N188" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:14">
@@ -20640,7 +20636,7 @@
         <v>20</v>
       </c>
       <c r="B189" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C189" t="s">
         <v>4</v>
@@ -20650,17 +20646,17 @@
       </c>
       <c r="E189">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>333</v>
+        <v>11</v>
       </c>
       <c r="F189">
-        <v>333.88600000000002</v>
+        <v>11.13</v>
       </c>
       <c r="H189">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>668</v>
+        <v>34</v>
       </c>
       <c r="I189">
-        <v>667.77200000000005</v>
+        <v>33.389000000000003</v>
       </c>
       <c r="N189" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -20672,7 +20668,7 @@
         <v>20</v>
       </c>
       <c r="B190" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="C190" t="s">
         <v>4</v>
@@ -20682,17 +20678,21 @@
       </c>
       <c r="E190">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F190">
-        <v>0</v>
+        <v>11.13</v>
       </c>
       <c r="H190">
-        <v>10000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>34</v>
+      </c>
+      <c r="I190">
+        <v>33.389000000000003</v>
       </c>
       <c r="N190" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:14">
@@ -20700,7 +20700,7 @@
         <v>20</v>
       </c>
       <c r="B191" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="C191" t="s">
         <v>4</v>
@@ -20716,11 +20716,15 @@
         <v>0</v>
       </c>
       <c r="H191">
-        <v>10000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>1000</v>
+      </c>
+      <c r="I191">
+        <v>1000</v>
       </c>
       <c r="N191" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:14">
@@ -20728,7 +20732,7 @@
         <v>20</v>
       </c>
       <c r="B192" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="C192" t="s">
         <v>4</v>
@@ -20738,17 +20742,21 @@
       </c>
       <c r="E192">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>8280</v>
       </c>
       <c r="F192">
-        <v>0</v>
+        <v>8280.4480000000003</v>
       </c>
       <c r="H192">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>10000</v>
+      </c>
+      <c r="I192">
         <v>10000</v>
       </c>
       <c r="N192" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:14">
@@ -20756,7 +20764,7 @@
         <v>20</v>
       </c>
       <c r="B193" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="C193" t="s">
         <v>4</v>
@@ -20766,25 +20774,29 @@
       </c>
       <c r="E193">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="F193">
-        <v>0</v>
+        <v>333.88600000000002</v>
       </c>
       <c r="H193">
-        <v>10000</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>668</v>
+      </c>
+      <c r="I193">
+        <v>667.77200000000005</v>
       </c>
       <c r="N193" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:14">
       <c r="A194" t="s">
         <v>20</v>
       </c>
-      <c r="B194" s="86" t="s">
-        <v>241</v>
+      <c r="B194" t="s">
+        <v>260</v>
       </c>
       <c r="C194" t="s">
         <v>4</v>
@@ -20794,25 +20806,25 @@
       </c>
       <c r="E194">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H194">
         <v>10000</v>
       </c>
       <c r="N194" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" t="s">
         <v>20</v>
       </c>
-      <c r="B195" s="86" t="s">
-        <v>243</v>
+      <c r="B195" t="s">
+        <v>261</v>
       </c>
       <c r="C195" t="s">
         <v>4</v>
@@ -20822,25 +20834,25 @@
       </c>
       <c r="E195">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="F195">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="H195">
         <v>10000</v>
       </c>
       <c r="N195" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:14">
       <c r="A196" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B196" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="C196" t="s">
         <v>4</v>
@@ -20850,29 +20862,25 @@
       </c>
       <c r="E196">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>161.72300000000001</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>486</v>
-      </c>
-      <c r="I196">
-        <v>485.16899999999998</v>
+        <v>10000</v>
       </c>
       <c r="N196" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:14">
       <c r="A197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B197" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C197" t="s">
         <v>4</v>
@@ -20882,29 +20890,25 @@
       </c>
       <c r="E197">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>161.72300000000001</v>
+        <v>0</v>
       </c>
       <c r="H197">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>486</v>
-      </c>
-      <c r="I197">
-        <v>485.16899999999998</v>
+        <v>10000</v>
       </c>
       <c r="N197" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" t="s">
-        <v>21</v>
-      </c>
-      <c r="B198" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="B198" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C198" t="s">
         <v>4</v>
@@ -20914,17 +20918,13 @@
       </c>
       <c r="E198">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="F198">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="H198">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>5400</v>
-      </c>
-      <c r="I198">
-        <v>5400</v>
+        <v>10000</v>
       </c>
       <c r="N198" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -20933,10 +20933,10 @@
     </row>
     <row r="199" spans="1:14">
       <c r="A199" t="s">
-        <v>21</v>
-      </c>
-      <c r="B199" t="s">
-        <v>39</v>
+        <v>20</v>
+      </c>
+      <c r="B199" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C199" t="s">
         <v>4</v>
@@ -20946,17 +20946,13 @@
       </c>
       <c r="E199">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>3868</v>
+        <v>98</v>
       </c>
       <c r="F199">
-        <v>3868.223</v>
+        <v>98</v>
       </c>
       <c r="H199">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>3900</v>
-      </c>
-      <c r="I199">
-        <v>3900</v>
+        <v>10000</v>
       </c>
       <c r="N199" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -20968,7 +20964,7 @@
         <v>21</v>
       </c>
       <c r="B200" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C200" t="s">
         <v>4</v>
@@ -20978,17 +20974,17 @@
       </c>
       <c r="E200">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>4851</v>
+        <v>161</v>
       </c>
       <c r="F200">
-        <v>4851.692</v>
+        <v>161.72300000000001</v>
       </c>
       <c r="H200">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>9704</v>
+        <v>486</v>
       </c>
       <c r="I200">
-        <v>9703.384</v>
+        <v>485.16899999999998</v>
       </c>
       <c r="N200" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -21000,7 +20996,7 @@
         <v>21</v>
       </c>
       <c r="B201" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="C201" t="s">
         <v>4</v>
@@ -21010,17 +21006,21 @@
       </c>
       <c r="E201">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="F201">
-        <v>0</v>
+        <v>161.72300000000001</v>
       </c>
       <c r="H201">
-        <v>9704</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>486</v>
+      </c>
+      <c r="I201">
+        <v>485.16899999999998</v>
       </c>
       <c r="N201" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:14">
@@ -21028,7 +21028,7 @@
         <v>21</v>
       </c>
       <c r="B202" t="s">
-        <v>261</v>
+        <v>38</v>
       </c>
       <c r="C202" t="s">
         <v>4</v>
@@ -21044,11 +21044,15 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>9704</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>5400</v>
+      </c>
+      <c r="I202">
+        <v>5400</v>
       </c>
       <c r="N202" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:14">
@@ -21056,7 +21060,7 @@
         <v>21</v>
       </c>
       <c r="B203" t="s">
-        <v>262</v>
+        <v>39</v>
       </c>
       <c r="C203" t="s">
         <v>4</v>
@@ -21066,17 +21070,21 @@
       </c>
       <c r="E203">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>3868</v>
       </c>
       <c r="F203">
-        <v>0</v>
+        <v>3868.223</v>
       </c>
       <c r="H203">
-        <v>9704</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>3900</v>
+      </c>
+      <c r="I203">
+        <v>3900</v>
       </c>
       <c r="N203" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:14">
@@ -21084,7 +21092,7 @@
         <v>21</v>
       </c>
       <c r="B204" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="C204" t="s">
         <v>4</v>
@@ -21094,25 +21102,29 @@
       </c>
       <c r="E204">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>4851</v>
       </c>
       <c r="F204">
-        <v>0</v>
+        <v>4851.692</v>
       </c>
       <c r="H204">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
         <v>9704</v>
+      </c>
+      <c r="I204">
+        <v>9703.384</v>
       </c>
       <c r="N204" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" t="s">
         <v>21</v>
       </c>
-      <c r="B205" s="86" t="s">
-        <v>241</v>
+      <c r="B205" t="s">
+        <v>260</v>
       </c>
       <c r="C205" t="s">
         <v>4</v>
@@ -21122,25 +21134,25 @@
       </c>
       <c r="E205">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="F205">
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="H205">
         <v>9704</v>
       </c>
       <c r="N205" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" t="s">
         <v>21</v>
       </c>
-      <c r="B206" s="86" t="s">
-        <v>243</v>
+      <c r="B206" t="s">
+        <v>261</v>
       </c>
       <c r="C206" t="s">
         <v>4</v>
@@ -21150,25 +21162,25 @@
       </c>
       <c r="E206">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>760</v>
+        <v>0</v>
       </c>
       <c r="H206">
         <v>9704</v>
       </c>
       <c r="N206" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B207" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="C207" t="s">
         <v>4</v>
@@ -21178,29 +21190,25 @@
       </c>
       <c r="E207">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>70.540000000000006</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>212</v>
-      </c>
-      <c r="I207">
-        <v>211.619</v>
+        <v>9704</v>
       </c>
       <c r="N207" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B208" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C208" t="s">
         <v>4</v>
@@ -21210,29 +21218,25 @@
       </c>
       <c r="E208">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>70.540000000000006</v>
+        <v>0</v>
       </c>
       <c r="H208">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>212</v>
-      </c>
-      <c r="I208">
-        <v>211.619</v>
+        <v>9704</v>
       </c>
       <c r="N208" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" t="s">
-        <v>22</v>
-      </c>
-      <c r="B209" t="s">
-        <v>38</v>
+        <v>21</v>
+      </c>
+      <c r="B209" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C209" t="s">
         <v>4</v>
@@ -21242,17 +21246,13 @@
       </c>
       <c r="E209">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="F209">
-        <v>600</v>
+        <v>760</v>
       </c>
       <c r="H209">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>6200</v>
-      </c>
-      <c r="I209">
-        <v>6200</v>
+        <v>9704</v>
       </c>
       <c r="N209" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -21261,10 +21261,10 @@
     </row>
     <row r="210" spans="1:14">
       <c r="A210" t="s">
-        <v>22</v>
-      </c>
-      <c r="B210" t="s">
-        <v>40</v>
+        <v>21</v>
+      </c>
+      <c r="B210" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C210" t="s">
         <v>4</v>
@@ -21274,17 +21274,13 @@
       </c>
       <c r="E210">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>2116</v>
+        <v>760</v>
       </c>
       <c r="F210">
-        <v>2116.1889999999999</v>
+        <v>760</v>
       </c>
       <c r="H210">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>4233</v>
-      </c>
-      <c r="I210">
-        <v>4232.3779999999997</v>
+        <v>9704</v>
       </c>
       <c r="N210" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -21296,7 +21292,7 @@
         <v>22</v>
       </c>
       <c r="B211" t="s">
-        <v>260</v>
+        <v>36</v>
       </c>
       <c r="C211" t="s">
         <v>4</v>
@@ -21306,17 +21302,21 @@
       </c>
       <c r="E211">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F211">
-        <v>0</v>
+        <v>70.540000000000006</v>
       </c>
       <c r="H211">
-        <v>6200</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>212</v>
+      </c>
+      <c r="I211">
+        <v>211.619</v>
       </c>
       <c r="N211" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:14">
@@ -21324,7 +21324,7 @@
         <v>22</v>
       </c>
       <c r="B212" t="s">
-        <v>261</v>
+        <v>37</v>
       </c>
       <c r="C212" t="s">
         <v>4</v>
@@ -21334,17 +21334,21 @@
       </c>
       <c r="E212">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="F212">
-        <v>0</v>
+        <v>70.540000000000006</v>
       </c>
       <c r="H212">
-        <v>6200</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>212</v>
+      </c>
+      <c r="I212">
+        <v>211.619</v>
       </c>
       <c r="N212" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:14">
@@ -21352,7 +21356,7 @@
         <v>22</v>
       </c>
       <c r="B213" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="C213" t="s">
         <v>4</v>
@@ -21362,17 +21366,21 @@
       </c>
       <c r="E213">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F213">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H213">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>6200</v>
+      </c>
+      <c r="I213">
         <v>6200</v>
       </c>
       <c r="N213" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:14">
@@ -21380,7 +21388,7 @@
         <v>22</v>
       </c>
       <c r="B214" t="s">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="C214" t="s">
         <v>4</v>
@@ -21390,25 +21398,29 @@
       </c>
       <c r="E214">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>2116</v>
       </c>
       <c r="F214">
-        <v>0</v>
+        <v>2116.1889999999999</v>
       </c>
       <c r="H214">
-        <v>6200</v>
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>4233</v>
+      </c>
+      <c r="I214">
+        <v>4232.3779999999997</v>
       </c>
       <c r="N214" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" t="s">
         <v>22</v>
       </c>
-      <c r="B215" s="86" t="s">
-        <v>241</v>
+      <c r="B215" t="s">
+        <v>260</v>
       </c>
       <c r="C215" t="s">
         <v>4</v>
@@ -21418,25 +21430,25 @@
       </c>
       <c r="E215">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="H215">
         <v>6200</v>
       </c>
       <c r="N215" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" t="s">
         <v>22</v>
       </c>
-      <c r="B216" s="86" t="s">
-        <v>243</v>
+      <c r="B216" t="s">
+        <v>261</v>
       </c>
       <c r="C216" t="s">
         <v>4</v>
@@ -21446,25 +21458,25 @@
       </c>
       <c r="E216">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="F216">
-        <v>224</v>
+        <v>0</v>
       </c>
       <c r="H216">
         <v>6200</v>
       </c>
       <c r="N216" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B217" t="s">
-        <v>36</v>
+        <v>262</v>
       </c>
       <c r="C217" t="s">
         <v>4</v>
@@ -21474,29 +21486,25 @@
       </c>
       <c r="E217">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>15506</v>
+        <v>0</v>
       </c>
       <c r="F217">
-        <v>15506.541999999999</v>
+        <v>0</v>
       </c>
       <c r="H217">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>26055</v>
-      </c>
-      <c r="I217">
-        <v>26054.291000000001</v>
+        <v>6200</v>
       </c>
       <c r="N217" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B218" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="C218" t="s">
         <v>4</v>
@@ -21506,29 +21514,25 @@
       </c>
       <c r="E218">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>15506</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>15506.541999999999</v>
+        <v>0</v>
       </c>
       <c r="H218">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>26055</v>
-      </c>
-      <c r="I218">
-        <v>26054.291000000001</v>
+        <v>6200</v>
       </c>
       <c r="N218" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" t="s">
-        <v>23</v>
-      </c>
-      <c r="B219" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="B219" s="86" t="s">
+        <v>241</v>
       </c>
       <c r="C219" t="s">
         <v>4</v>
@@ -21538,17 +21542,13 @@
       </c>
       <c r="E219">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>52467</v>
+        <v>224</v>
       </c>
       <c r="F219">
-        <v>52467.47</v>
+        <v>224</v>
       </c>
       <c r="H219">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>96158</v>
-      </c>
-      <c r="I219">
-        <v>96157.57</v>
+        <v>6200</v>
       </c>
       <c r="N219" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -21557,10 +21557,10 @@
     </row>
     <row r="220" spans="1:14">
       <c r="A220" t="s">
-        <v>23</v>
-      </c>
-      <c r="B220" t="s">
-        <v>39</v>
+        <v>22</v>
+      </c>
+      <c r="B220" s="86" t="s">
+        <v>243</v>
       </c>
       <c r="C220" t="s">
         <v>4</v>
@@ -21570,17 +21570,13 @@
       </c>
       <c r="E220">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>32199</v>
+        <v>224</v>
       </c>
       <c r="F220">
-        <v>32199.174999999999</v>
+        <v>224</v>
       </c>
       <c r="H220">
-        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>45454</v>
-      </c>
-      <c r="I220">
-        <v>45453.082999999999</v>
+        <v>6200</v>
       </c>
       <c r="N220" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -21592,7 +21588,7 @@
         <v>23</v>
       </c>
       <c r="B221" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C221" t="s">
         <v>4</v>
@@ -21602,17 +21598,17 @@
       </c>
       <c r="E221">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>35042</v>
+        <v>15506</v>
       </c>
       <c r="F221">
-        <v>35042.421999999999</v>
+        <v>15506.541999999999</v>
       </c>
       <c r="H221">
         <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
-        <v>61335</v>
+        <v>26055</v>
       </c>
       <c r="I221">
-        <v>61334.445</v>
+        <v>26054.291000000001</v>
       </c>
       <c r="N221" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
@@ -21624,7 +21620,7 @@
         <v>23</v>
       </c>
       <c r="B222" t="s">
-        <v>260</v>
+        <v>37</v>
       </c>
       <c r="C222" t="s">
         <v>4</v>
@@ -21634,15 +21630,143 @@
       </c>
       <c r="E222">
         <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
-        <v>0</v>
+        <v>15506</v>
       </c>
       <c r="F222">
-        <v>0</v>
+        <v>15506.541999999999</v>
       </c>
       <c r="H222">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>26055</v>
+      </c>
+      <c r="I222">
+        <v>26054.291000000001</v>
+      </c>
+      <c r="N222" t="b">
+        <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
+      <c r="A223" t="s">
+        <v>23</v>
+      </c>
+      <c r="B223" t="s">
+        <v>38</v>
+      </c>
+      <c r="C223" t="s">
+        <v>4</v>
+      </c>
+      <c r="D223">
+        <v>2040</v>
+      </c>
+      <c r="E223">
+        <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
+        <v>52467</v>
+      </c>
+      <c r="F223">
+        <v>52467.47</v>
+      </c>
+      <c r="H223">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
         <v>96158</v>
       </c>
-      <c r="N222" t="b">
+      <c r="I223">
+        <v>96157.57</v>
+      </c>
+      <c r="N223" t="b">
+        <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
+      <c r="A224" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" t="s">
+        <v>39</v>
+      </c>
+      <c r="C224" t="s">
+        <v>4</v>
+      </c>
+      <c r="D224">
+        <v>2040</v>
+      </c>
+      <c r="E224">
+        <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
+        <v>32199</v>
+      </c>
+      <c r="F224">
+        <v>32199.174999999999</v>
+      </c>
+      <c r="H224">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>45454</v>
+      </c>
+      <c r="I224">
+        <v>45453.082999999999</v>
+      </c>
+      <c r="N224" t="b">
+        <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
+      <c r="A225" t="s">
+        <v>23</v>
+      </c>
+      <c r="B225" t="s">
+        <v>40</v>
+      </c>
+      <c r="C225" t="s">
+        <v>4</v>
+      </c>
+      <c r="D225">
+        <v>2040</v>
+      </c>
+      <c r="E225">
+        <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
+        <v>35042</v>
+      </c>
+      <c r="F225">
+        <v>35042.421999999999</v>
+      </c>
+      <c r="H225">
+        <f>ROUNDUP(Table53[[#This Row],[OrigCap]],0)</f>
+        <v>61335</v>
+      </c>
+      <c r="I225">
+        <v>61334.445</v>
+      </c>
+      <c r="N225" t="b">
+        <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
+      <c r="A226" t="s">
+        <v>23</v>
+      </c>
+      <c r="B226" t="s">
+        <v>260</v>
+      </c>
+      <c r="C226" t="s">
+        <v>4</v>
+      </c>
+      <c r="D226">
+        <v>2040</v>
+      </c>
+      <c r="E226">
+        <f>ROUNDDOWN(Table53[[#This Row],[capacity_output1_raw]],0)</f>
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>96158</v>
+      </c>
+      <c r="N226" t="b">
         <f>Table53[[#This Row],[capacity_output1_raw]]=Table53[[#This Row],[OrigCap]]</f>
         <v>1</v>
       </c>
@@ -27710,7 +27834,7 @@
   </sheetPr>
   <dimension ref="A1:AL55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>

--- a/src_files/data_files/gg-smr-scenario-changes.xlsx
+++ b/src_files/data_files/gg-smr-scenario-changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6426D96C-7E84-4F58-BDA6-B5B2FD23172F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F3E432-4FB8-4F37-917E-DC0DC8FB16E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="17880" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="17880" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="20" r:id="rId1"/>
@@ -1284,9 +1284,6 @@
     <t>rampUpCost</t>
   </si>
   <si>
-    <t>upperLimitCapacityRatio_input1</t>
-  </si>
-  <si>
     <t>useTimeseriesAvailability</t>
   </si>
   <si>
@@ -1384,6 +1381,9 @@
   </si>
   <si>
     <t>capacity_output1_raw</t>
+  </si>
+  <si>
+    <t>upperLimitCapacityRatio</t>
   </si>
 </sst>
 </file>
@@ -4354,18 +4354,18 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="18" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>340</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -4391,18 +4391,18 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="B28" s="19" t="s">
         <v>343</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="B29" s="19" t="s">
         <v>345</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -14725,8 +14725,8 @@
   </sheetPr>
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14766,7 +14766,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>252</v>
@@ -27970,10 +27970,10 @@
         <v>196</v>
       </c>
       <c r="AH1" s="101" t="s">
+        <v>321</v>
+      </c>
+      <c r="AI1" s="101" t="s">
         <v>322</v>
-      </c>
-      <c r="AI1" s="101" t="s">
-        <v>323</v>
       </c>
       <c r="AJ1" s="101" t="s">
         <v>27</v>
@@ -27981,7 +27981,7 @@
     </row>
     <row r="2" spans="1:36" s="105" customFormat="1">
       <c r="A2" s="101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B2" s="101">
         <v>1</v>
@@ -27990,13 +27990,13 @@
         <v>260</v>
       </c>
       <c r="D2" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E2" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F2" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G2" s="104"/>
       <c r="H2" s="102">
@@ -28078,7 +28078,7 @@
     </row>
     <row r="3" spans="1:36" s="107" customFormat="1">
       <c r="A3" s="101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B3" s="101">
         <v>1</v>
@@ -28087,13 +28087,13 @@
         <v>260</v>
       </c>
       <c r="D3" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E3" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G3" s="106"/>
       <c r="H3" s="102">
@@ -28175,7 +28175,7 @@
     </row>
     <row r="4" spans="1:36" s="106" customFormat="1">
       <c r="A4" s="101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B4" s="101">
         <v>1</v>
@@ -28184,13 +28184,13 @@
         <v>260</v>
       </c>
       <c r="D4" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E4" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H4" s="102">
         <v>0.33</v>
@@ -28269,12 +28269,12 @@
       <c r="AH4" s="101"/>
       <c r="AI4" s="101"/>
       <c r="AJ4" s="106" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="107" customFormat="1">
       <c r="A5" s="101" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B5" s="101">
         <v>1</v>
@@ -28283,13 +28283,13 @@
         <v>260</v>
       </c>
       <c r="D5" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E5" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G5" s="101"/>
       <c r="H5" s="102">
@@ -28371,7 +28371,7 @@
     </row>
     <row r="6" spans="1:36" s="107" customFormat="1">
       <c r="A6" s="101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B6" s="101">
         <v>1</v>
@@ -28380,13 +28380,13 @@
         <v>260</v>
       </c>
       <c r="D6" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E6" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G6" s="104"/>
       <c r="H6" s="102">
@@ -28468,7 +28468,7 @@
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="101" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B7" s="101">
         <v>1</v>
@@ -28477,13 +28477,13 @@
         <v>260</v>
       </c>
       <c r="D7" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E7" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H7" s="102">
         <v>0.38</v>
@@ -28558,12 +28558,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ7" s="101" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="101" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B8" s="101">
         <v>1</v>
@@ -28572,13 +28572,13 @@
         <v>260</v>
       </c>
       <c r="D8" s="101" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E8" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G8" s="104"/>
       <c r="H8" s="102">
@@ -28654,12 +28654,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ8" s="101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="101">
         <v>1</v>
@@ -28668,16 +28668,16 @@
         <v>261</v>
       </c>
       <c r="D9" s="101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E9" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G9" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H9" s="102">
         <v>0.61</v>
@@ -28762,7 +28762,7 @@
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B10" s="101">
         <v>1</v>
@@ -28771,16 +28771,16 @@
         <v>261</v>
       </c>
       <c r="D10" s="101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E10" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G10" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H10" s="102">
         <v>0.75</v>
@@ -28865,7 +28865,7 @@
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B11" s="101">
         <v>1</v>
@@ -28874,16 +28874,16 @@
         <v>261</v>
       </c>
       <c r="D11" s="101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E11" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G11" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H11" s="102">
         <v>0.89</v>
@@ -28966,12 +28966,12 @@
       <c r="AH11" s="104"/>
       <c r="AI11" s="104"/>
       <c r="AJ11" s="106" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="101" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B12" s="101">
         <v>1</v>
@@ -28980,16 +28980,16 @@
         <v>261</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E12" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G12" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H12" s="102">
         <v>0.92</v>
@@ -29074,7 +29074,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B13" s="101">
         <v>1</v>
@@ -29083,16 +29083,16 @@
         <v>261</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E13" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G13" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H13" s="102">
         <v>0.94</v>
@@ -29177,7 +29177,7 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="101" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B14" s="101">
         <v>1</v>
@@ -29186,16 +29186,16 @@
         <v>261</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E14" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G14" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H14" s="102">
         <v>0.92</v>
@@ -29276,12 +29276,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ14" s="101" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="101" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B15" s="101">
         <v>1</v>
@@ -29290,16 +29290,16 @@
         <v>261</v>
       </c>
       <c r="D15" s="101" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E15" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="101" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G15" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H15" s="102">
         <v>0.94</v>
@@ -29380,12 +29380,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ15" s="101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="101" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B16" s="101">
         <v>1</v>
@@ -29394,13 +29394,13 @@
         <v>262</v>
       </c>
       <c r="D16" s="101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E16" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G16" s="108"/>
       <c r="H16" s="102">
@@ -29478,7 +29478,7 @@
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="101" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B17" s="101">
         <v>1</v>
@@ -29487,13 +29487,13 @@
         <v>262</v>
       </c>
       <c r="D17" s="101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E17" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G17" s="106"/>
       <c r="H17" s="102">
@@ -29573,7 +29573,7 @@
     </row>
     <row r="18" spans="1:36" s="104" customFormat="1">
       <c r="A18" s="101" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B18" s="101">
         <v>1</v>
@@ -29582,13 +29582,13 @@
         <v>262</v>
       </c>
       <c r="D18" s="101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E18" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G18" s="106"/>
       <c r="H18" s="102">
@@ -29668,12 +29668,12 @@
       <c r="AH18" s="106"/>
       <c r="AI18" s="106"/>
       <c r="AJ18" s="106" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="1:36" s="109" customFormat="1">
       <c r="A19" s="101" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B19" s="101">
         <v>1</v>
@@ -29682,13 +29682,13 @@
         <v>262</v>
       </c>
       <c r="D19" s="101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E19" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F19" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G19" s="101"/>
       <c r="H19" s="102">
@@ -29770,7 +29770,7 @@
     </row>
     <row r="20" spans="1:36" s="104" customFormat="1">
       <c r="A20" s="101" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B20" s="101">
         <v>1</v>
@@ -29779,13 +29779,13 @@
         <v>262</v>
       </c>
       <c r="D20" s="101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E20" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H20" s="102">
         <v>0.95</v>
@@ -29864,7 +29864,7 @@
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="101" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B21" s="101">
         <v>1</v>
@@ -29873,13 +29873,13 @@
         <v>262</v>
       </c>
       <c r="D21" s="101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E21" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H21" s="102">
         <v>0.93</v>
@@ -29954,12 +29954,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ21" s="101" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="101" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B22" s="101">
         <v>1</v>
@@ -29968,13 +29968,13 @@
         <v>262</v>
       </c>
       <c r="D22" s="101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E22" s="101" t="s">
         <v>28</v>
       </c>
       <c r="F22" s="101" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G22" s="104"/>
       <c r="H22" s="102">
@@ -30050,7 +30050,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ22" s="101" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:36">
@@ -30990,8 +30990,11 @@
   </sheetPr>
   <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1:AT1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31000,7 +31003,7 @@
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="51.75">
+    <row r="1" spans="1:46" ht="39">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -31107,10 +31110,10 @@
         <v>313</v>
       </c>
       <c r="AJ1" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="AK1" s="4" t="s">
         <v>314</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>315</v>
       </c>
       <c r="AL1" s="4" t="s">
         <v>27</v>
@@ -31157,10 +31160,10 @@
       <c r="H2" s="95"/>
       <c r="I2" s="95"/>
       <c r="J2" s="95" t="s">
+        <v>315</v>
+      </c>
+      <c r="K2" s="95" t="s">
         <v>316</v>
-      </c>
-      <c r="K2" s="95" t="s">
-        <v>317</v>
       </c>
       <c r="L2" s="95"/>
       <c r="M2" s="95"/>
@@ -31212,7 +31215,9 @@
       <c r="AI2" s="95">
         <v>0</v>
       </c>
-      <c r="AJ2" s="95"/>
+      <c r="AJ2" s="95">
+        <v>4</v>
+      </c>
       <c r="AK2" s="95"/>
       <c r="AM2" s="17">
         <v>1</v>
@@ -31259,10 +31264,10 @@
       <c r="H3" s="95"/>
       <c r="I3" s="95"/>
       <c r="J3" s="95" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L3" s="95"/>
       <c r="M3" s="95"/>
@@ -31314,9 +31319,6 @@
       <c r="AI3" s="95">
         <v>0</v>
       </c>
-      <c r="AJ3" s="95">
-        <v>4</v>
-      </c>
       <c r="AK3" s="95"/>
       <c r="AL3" s="96"/>
       <c r="AM3">
@@ -31358,10 +31360,10 @@
         <v>240</v>
       </c>
       <c r="J4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O4">
         <v>0.98</v>
@@ -31446,10 +31448,10 @@
       <c r="H5" s="86"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86" t="s">
+        <v>317</v>
+      </c>
+      <c r="K5" s="86" t="s">
         <v>318</v>
-      </c>
-      <c r="K5" s="86" t="s">
-        <v>319</v>
       </c>
       <c r="L5" s="86"/>
       <c r="M5" s="86"/>
@@ -31501,7 +31503,9 @@
       <c r="AI5" s="86">
         <v>0</v>
       </c>
-      <c r="AJ5" s="86"/>
+      <c r="AJ5" s="86">
+        <v>10</v>
+      </c>
       <c r="AK5" s="86"/>
       <c r="AL5" s="97"/>
       <c r="AM5">
@@ -31548,10 +31552,10 @@
       <c r="H6" s="86"/>
       <c r="I6" s="86"/>
       <c r="J6" s="86" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K6" s="86" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L6" s="86"/>
       <c r="M6" s="86"/>
@@ -31603,9 +31607,6 @@
       <c r="AI6" s="86">
         <v>0</v>
       </c>
-      <c r="AJ6" s="86">
-        <v>10</v>
-      </c>
       <c r="AK6" s="86"/>
       <c r="AL6" s="86"/>
       <c r="AM6" s="17">
@@ -31648,13 +31649,13 @@
         <v>189</v>
       </c>
       <c r="G7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J7" s="97" t="s">
         <v>157</v>
       </c>
       <c r="K7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -31733,13 +31734,13 @@
         <v>190</v>
       </c>
       <c r="G8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J8" s="97" t="s">
         <v>157</v>
       </c>
       <c r="K8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -31825,7 +31826,7 @@
         <v>157</v>
       </c>
       <c r="K9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O9">
         <v>1</v>

--- a/src_files/data_files/gg-smr-scenario-changes.xlsx
+++ b/src_files/data_files/gg-smr-scenario-changes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE66A49-BDFE-4635-934B-3688D2ECDF7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533507E0-B0E9-4D0D-9F3C-22A166BFBF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="17880" windowWidth="29040" windowHeight="15720" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="20" r:id="rId1"/>
@@ -1401,7 +1401,7 @@
     <t>A mix of `nucLow` and `nucHigh` always sampling the disadvantageous parameter values.</t>
   </si>
   <si>
-    <t>Replicate data of interest from `unittypedata_nuclear-lwr-smr.xlsx` to manually override `unitSize`. (Needs to duplicate all parameters for now due to NE-model data processing oversights) (Also currently removes `cV` due to Backbone investment input data preprocessing limitations)</t>
+    <t>Replicate data of interest from `unittypedata_nuclear-lwr-smr.xlsx` to manually override `unitSize`. (Needs to duplicate all parameters for now due to NE-model data processing oversights) (Also currently removes `cV` due to Backbone investment input data preprocessing limitations, as well as forcing `minShutDownHours` &gt;= `startWarmAfterXHours`)</t>
   </si>
 </sst>
 </file>
@@ -4190,8 +4190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA71A91-038D-4743-9A24-5EE3CD503F37}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14692,7 +14692,7 @@
   </sheetPr>
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -27802,10 +27802,10 @@
   <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA3" sqref="AA3:AA28"/>
+      <selection pane="bottomRight" activeCell="W25" sqref="W25:W26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -28467,8 +28467,8 @@
       <c r="V7">
         <v>50</v>
       </c>
-      <c r="W7">
-        <v>36</v>
+      <c r="W7" s="98">
+        <v>96</v>
       </c>
       <c r="X7">
         <v>144</v>
@@ -28562,8 +28562,8 @@
       <c r="V8">
         <v>30.25</v>
       </c>
-      <c r="W8">
-        <v>33</v>
+      <c r="W8" s="98">
+        <v>55</v>
       </c>
       <c r="X8">
         <v>132</v>
@@ -29364,8 +29364,8 @@
       <c r="V16">
         <v>61</v>
       </c>
-      <c r="W16">
-        <v>36</v>
+      <c r="W16" s="98">
+        <v>96</v>
       </c>
       <c r="X16">
         <v>144</v>
@@ -29468,8 +29468,8 @@
       <c r="V17">
         <v>36.33</v>
       </c>
-      <c r="W17">
-        <v>33</v>
+      <c r="W17" s="98">
+        <v>55</v>
       </c>
       <c r="X17">
         <v>132</v>
@@ -30234,8 +30234,8 @@
       <c r="V25">
         <v>25</v>
       </c>
-      <c r="W25">
-        <v>36</v>
+      <c r="W25" s="98">
+        <v>96</v>
       </c>
       <c r="X25">
         <v>144</v>
@@ -30329,8 +30329,8 @@
       <c r="V26">
         <v>15.25</v>
       </c>
-      <c r="W26">
-        <v>32</v>
+      <c r="W26" s="98">
+        <v>53</v>
       </c>
       <c r="X26">
         <v>126</v>

--- a/src_files/data_files/gg-smr-scenario-changes.xlsx
+++ b/src_files/data_files/gg-smr-scenario-changes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533507E0-B0E9-4D0D-9F3C-22A166BFBF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC328F0-5165-4EF8-8CA6-02D9BFB1C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="862" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="20" r:id="rId1"/>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3469" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3474" uniqueCount="355">
   <si>
     <t>Country</t>
   </si>
@@ -1167,9 +1167,6 @@
     <t>TEMPLATE</t>
   </si>
   <si>
-    <t>Check TYNDP2024 CAPEX and OPEX cost assumtpions, and use them for wind/solar investments.</t>
-  </si>
-  <si>
     <t>ETS-CO2</t>
   </si>
   <si>
@@ -1383,9 +1380,6 @@
     <t>Do I need to include pessimistic and worst-case scenarios for nuclear parameters to see if the investments vanish?</t>
   </si>
   <si>
-    <t>2025-09-18</t>
-  </si>
-  <si>
     <t>Reverts TYNDP2024 "National Trends" 2040 scenario unit capacities back to their 2030 counterparts and caps investments into the desired technologies. Needs to include rounding, as Backbone investment options need to be integer multiples of assumed unit size just to be safe.</t>
   </si>
   <si>
@@ -1402,6 +1396,15 @@
   </si>
   <si>
     <t>Replicate data of interest from `unittypedata_nuclear-lwr-smr.xlsx` to manually override `unitSize`. (Needs to duplicate all parameters for now due to NE-model data processing oversights) (Also currently removes `cV` due to Backbone investment input data preprocessing limitations, as well as forcing `minShutDownHours` &gt;= `startWarmAfterXHours`)</t>
+  </si>
+  <si>
+    <t>Check TYNDP2024 CAPEX and OPEX cost assumptions, and use them for wind/solar investments.</t>
+  </si>
+  <si>
+    <t>DEA data</t>
+  </si>
+  <si>
+    <t>2025-10-09</t>
   </si>
 </sst>
 </file>
@@ -4190,8 +4193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA71A91-038D-4743-9A24-5EE3CD503F37}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4230,7 +4233,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4263,7 +4266,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="D11" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4298,12 +4301,12 @@
     </row>
     <row r="19" spans="1:3">
       <c r="C19" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="C20" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -4316,23 +4319,23 @@
         <v>65</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="18" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="B25" s="19" t="s">
         <v>336</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4358,18 +4361,18 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>338</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>340</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -4401,7 +4404,7 @@
         <v>274</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>275</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7402,8 +7405,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q354"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J358" sqref="J358"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K354" sqref="K354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -14692,7 +14695,7 @@
   </sheetPr>
   <dimension ref="A1:O226"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -14733,7 +14736,7 @@
         <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>251</v>
@@ -27802,7 +27805,7 @@
   <dimension ref="A1:AJ28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="W25" sqref="W25:W26"/>
@@ -27850,76 +27853,76 @@
         <v>32</v>
       </c>
       <c r="E1" s="91" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="G1" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="91" t="s">
-        <v>287</v>
-      </c>
       <c r="H1" s="92" t="s">
+        <v>289</v>
+      </c>
+      <c r="I1" s="92" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="J1" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="N1" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="N1" s="92" t="s">
-        <v>294</v>
-      </c>
       <c r="O1" s="92" t="s">
+        <v>295</v>
+      </c>
+      <c r="P1" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="Q1" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="R1" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="S1" s="92" t="s">
+      <c r="T1" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="T1" s="92" t="s">
+      <c r="U1" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="U1" s="92" t="s">
+      <c r="V1" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="V1" s="92" t="s">
+      <c r="W1" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="W1" s="92" t="s">
+      <c r="X1" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="X1" s="92" t="s">
+      <c r="Y1" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="AA1" s="4" t="s">
         <v>248</v>
       </c>
       <c r="AB1" s="92" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AC1" s="4" t="s">
         <v>191</v>
@@ -27937,10 +27940,10 @@
         <v>195</v>
       </c>
       <c r="AH1" s="97" t="s">
+        <v>317</v>
+      </c>
+      <c r="AI1" s="97" t="s">
         <v>318</v>
-      </c>
-      <c r="AI1" s="97" t="s">
-        <v>319</v>
       </c>
       <c r="AJ1" s="97" t="s">
         <v>27</v>
@@ -27948,7 +27951,7 @@
     </row>
     <row r="2" spans="1:36" customFormat="1">
       <c r="A2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -27957,13 +27960,13 @@
         <v>259</v>
       </c>
       <c r="D2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E2" t="s">
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H2">
         <v>0.23</v>
@@ -28040,7 +28043,7 @@
     </row>
     <row r="3" spans="1:36" customFormat="1">
       <c r="A3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -28049,13 +28052,13 @@
         <v>259</v>
       </c>
       <c r="D3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E3" t="s">
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H3">
         <v>0.28000000000000003</v>
@@ -28132,7 +28135,7 @@
     </row>
     <row r="4" spans="1:36" customFormat="1">
       <c r="A4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -28141,13 +28144,13 @@
         <v>259</v>
       </c>
       <c r="D4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H4">
         <v>0.33</v>
@@ -28222,12 +28225,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:36" customFormat="1">
       <c r="A5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -28236,13 +28239,13 @@
         <v>259</v>
       </c>
       <c r="D5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H5">
         <v>0.38</v>
@@ -28319,7 +28322,7 @@
     </row>
     <row r="6" spans="1:36" customFormat="1">
       <c r="A6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -28328,13 +28331,13 @@
         <v>259</v>
       </c>
       <c r="D6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E6" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H6">
         <v>0.42</v>
@@ -28411,7 +28414,7 @@
     </row>
     <row r="7" spans="1:36" customFormat="1">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -28420,13 +28423,13 @@
         <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H7">
         <v>0.23</v>
@@ -28501,12 +28504,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:36" customFormat="1">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -28515,13 +28518,13 @@
         <v>259</v>
       </c>
       <c r="D8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
         <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H8">
         <v>0.28000000000000003</v>
@@ -28596,12 +28599,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ8" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:36" customFormat="1">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -28610,13 +28613,13 @@
         <v>259</v>
       </c>
       <c r="D9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H9">
         <v>0.38</v>
@@ -28691,12 +28694,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:36" customFormat="1">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -28705,13 +28708,13 @@
         <v>259</v>
       </c>
       <c r="D10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E10" t="s">
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H10">
         <v>0.42</v>
@@ -28786,12 +28789,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:36" customFormat="1">
       <c r="A11" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -28800,16 +28803,16 @@
         <v>260</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H11">
         <v>0.61</v>
@@ -28892,7 +28895,7 @@
     </row>
     <row r="12" spans="1:36" customFormat="1">
       <c r="A12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -28901,16 +28904,16 @@
         <v>260</v>
       </c>
       <c r="D12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G12" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H12">
         <v>0.75</v>
@@ -28993,7 +28996,7 @@
     </row>
     <row r="13" spans="1:36" customFormat="1">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -29002,16 +29005,16 @@
         <v>260</v>
       </c>
       <c r="D13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G13" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H13">
         <v>0.89</v>
@@ -29092,12 +29095,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:36" customFormat="1">
       <c r="A14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -29106,16 +29109,16 @@
         <v>260</v>
       </c>
       <c r="D14" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E14" t="s">
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H14">
         <v>0.92</v>
@@ -29198,7 +29201,7 @@
     </row>
     <row r="15" spans="1:36" customFormat="1">
       <c r="A15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -29207,16 +29210,16 @@
         <v>260</v>
       </c>
       <c r="D15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E15" t="s">
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H15">
         <v>0.94</v>
@@ -29299,7 +29302,7 @@
     </row>
     <row r="16" spans="1:36" customFormat="1">
       <c r="A16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -29308,16 +29311,16 @@
         <v>260</v>
       </c>
       <c r="D16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H16">
         <v>0.61</v>
@@ -29398,12 +29401,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ16" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="17" spans="1:36" customFormat="1">
       <c r="A17" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -29412,16 +29415,16 @@
         <v>260</v>
       </c>
       <c r="D17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H17">
         <v>0.75</v>
@@ -29502,12 +29505,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ17" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:36" customFormat="1">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -29516,16 +29519,16 @@
         <v>260</v>
       </c>
       <c r="D18" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E18" t="s">
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H18">
         <v>0.92</v>
@@ -29606,12 +29609,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="19" spans="1:36" customFormat="1">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -29620,16 +29623,16 @@
         <v>260</v>
       </c>
       <c r="D19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E19" t="s">
         <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G19" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H19">
         <v>0.94</v>
@@ -29710,12 +29713,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:36" customFormat="1">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -29724,13 +29727,13 @@
         <v>261</v>
       </c>
       <c r="D20" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H20">
         <v>0.81</v>
@@ -29807,7 +29810,7 @@
     </row>
     <row r="21" spans="1:36" customFormat="1">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -29816,13 +29819,13 @@
         <v>261</v>
       </c>
       <c r="D21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E21" t="s">
         <v>28</v>
       </c>
       <c r="F21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H21">
         <v>0.86</v>
@@ -29899,7 +29902,7 @@
     </row>
     <row r="22" spans="1:36" customFormat="1">
       <c r="A22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -29908,13 +29911,13 @@
         <v>261</v>
       </c>
       <c r="D22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E22" t="s">
         <v>28</v>
       </c>
       <c r="F22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H22">
         <v>0.91</v>
@@ -29989,12 +29992,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:36" customFormat="1">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -30003,13 +30006,13 @@
         <v>261</v>
       </c>
       <c r="D23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E23" t="s">
         <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H23">
         <v>0.93</v>
@@ -30086,7 +30089,7 @@
     </row>
     <row r="24" spans="1:36" customFormat="1">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -30095,13 +30098,13 @@
         <v>261</v>
       </c>
       <c r="D24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E24" t="s">
         <v>28</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H24">
         <v>0.95</v>
@@ -30178,7 +30181,7 @@
     </row>
     <row r="25" spans="1:36" customFormat="1">
       <c r="A25" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -30187,13 +30190,13 @@
         <v>261</v>
       </c>
       <c r="D25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E25" t="s">
         <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H25">
         <v>0.81</v>
@@ -30268,12 +30271,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ25" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:36" customFormat="1">
       <c r="A26" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -30282,13 +30285,13 @@
         <v>261</v>
       </c>
       <c r="D26" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E26" t="s">
         <v>28</v>
       </c>
       <c r="F26" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H26">
         <v>0.86</v>
@@ -30363,12 +30366,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ26" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:36" customFormat="1">
       <c r="A27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -30377,13 +30380,13 @@
         <v>261</v>
       </c>
       <c r="D27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H27">
         <v>0.93</v>
@@ -30458,12 +30461,12 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:36" customFormat="1">
       <c r="A28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -30472,13 +30475,13 @@
         <v>261</v>
       </c>
       <c r="D28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E28" t="s">
         <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H28">
         <v>0.95</v>
@@ -30553,7 +30556,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AJ28" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -30572,10 +30575,10 @@
   <dimension ref="A1:AS9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AF2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AT10" sqref="AT10"/>
+      <selection pane="bottomRight" activeCell="AL6" sqref="AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -30598,103 +30601,103 @@
         <v>32</v>
       </c>
       <c r="E1" s="89" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="G1" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="G1" s="89" t="s">
+      <c r="H1" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="I1" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="I1" s="90" t="s">
+      <c r="J1" s="91" t="s">
         <v>284</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="K1" s="91" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="L1" s="91" t="s">
         <v>286</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="M1" s="91" t="s">
         <v>287</v>
       </c>
-      <c r="M1" s="91" t="s">
+      <c r="N1" s="91" t="s">
         <v>288</v>
       </c>
-      <c r="N1" s="91" t="s">
+      <c r="O1" s="92" t="s">
         <v>289</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="P1" s="92" t="s">
         <v>290</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="Q1" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="S1" s="92" t="s">
         <v>293</v>
       </c>
-      <c r="S1" s="92" t="s">
+      <c r="T1" s="92" t="s">
         <v>294</v>
       </c>
-      <c r="T1" s="92" t="s">
+      <c r="U1" s="92" t="s">
         <v>295</v>
       </c>
-      <c r="U1" s="92" t="s">
+      <c r="V1" s="92" t="s">
         <v>296</v>
       </c>
-      <c r="V1" s="92" t="s">
+      <c r="W1" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="W1" s="92" t="s">
+      <c r="X1" s="92" t="s">
         <v>298</v>
       </c>
-      <c r="X1" s="92" t="s">
+      <c r="Y1" s="92" t="s">
         <v>299</v>
       </c>
-      <c r="Y1" s="92" t="s">
+      <c r="Z1" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="Z1" s="92" t="s">
+      <c r="AA1" s="92" t="s">
         <v>301</v>
       </c>
-      <c r="AA1" s="92" t="s">
+      <c r="AB1" s="92" t="s">
         <v>302</v>
       </c>
-      <c r="AB1" s="92" t="s">
+      <c r="AC1" s="92" t="s">
         <v>303</v>
       </c>
-      <c r="AC1" s="92" t="s">
+      <c r="AD1" s="92" t="s">
         <v>304</v>
       </c>
-      <c r="AD1" s="92" t="s">
+      <c r="AE1" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AI1" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="AI1" s="92" t="s">
+      <c r="AJ1" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="AK1" s="4" t="s">
         <v>310</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>311</v>
       </c>
       <c r="AL1" s="4" t="s">
         <v>27</v>
@@ -30712,7 +30715,7 @@
         <v>193</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AR1" t="s">
         <v>194</v>
@@ -30740,10 +30743,10 @@
       <c r="H2" s="94"/>
       <c r="I2" s="94"/>
       <c r="J2" s="94" t="s">
+        <v>311</v>
+      </c>
+      <c r="K2" s="94" t="s">
         <v>312</v>
-      </c>
-      <c r="K2" s="94" t="s">
-        <v>313</v>
       </c>
       <c r="L2" s="94"/>
       <c r="M2" s="94"/>
@@ -30799,6 +30802,9 @@
         <v>4</v>
       </c>
       <c r="AK2" s="94"/>
+      <c r="AL2" t="s">
+        <v>353</v>
+      </c>
       <c r="AM2">
         <v>1</v>
       </c>
@@ -30815,7 +30821,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="AQ2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AR2">
         <v>30</v>
@@ -30843,10 +30849,10 @@
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
       <c r="J3" s="94" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
@@ -30899,7 +30905,9 @@
         <v>0</v>
       </c>
       <c r="AK3" s="94"/>
-      <c r="AL3" s="95"/>
+      <c r="AL3" t="s">
+        <v>353</v>
+      </c>
       <c r="AM3">
         <v>1</v>
       </c>
@@ -30916,7 +30924,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="AQ3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AR3">
         <v>30</v>
@@ -30939,10 +30947,10 @@
         <v>239</v>
       </c>
       <c r="J4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="O4">
         <v>0.98</v>
@@ -30983,7 +30991,9 @@
       <c r="AI4">
         <v>0</v>
       </c>
-      <c r="AL4" s="95"/>
+      <c r="AL4" t="s">
+        <v>353</v>
+      </c>
       <c r="AM4">
         <v>1</v>
       </c>
@@ -30998,7 +31008,7 @@
         <v>9.4392925743255696E-2</v>
       </c>
       <c r="AQ4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AR4">
         <v>20</v>
@@ -31026,10 +31036,10 @@
       <c r="H5" s="86"/>
       <c r="I5" s="86"/>
       <c r="J5" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="K5" s="86" t="s">
         <v>314</v>
-      </c>
-      <c r="K5" s="86" t="s">
-        <v>315</v>
       </c>
       <c r="L5" s="86"/>
       <c r="M5" s="86"/>
@@ -31085,7 +31095,9 @@
         <v>10</v>
       </c>
       <c r="AK5" s="86"/>
-      <c r="AL5" s="96"/>
+      <c r="AL5" t="s">
+        <v>353</v>
+      </c>
       <c r="AM5">
         <v>1</v>
       </c>
@@ -31102,7 +31114,7 @@
         <v>7.5009138873610326E-2</v>
       </c>
       <c r="AQ5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AR5">
         <v>40</v>
@@ -31130,10 +31142,10 @@
       <c r="H6" s="86"/>
       <c r="I6" s="86"/>
       <c r="J6" s="86" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K6" s="86" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L6" s="86"/>
       <c r="M6" s="86"/>
@@ -31186,7 +31198,9 @@
         <v>0</v>
       </c>
       <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
+      <c r="AL6" t="s">
+        <v>353</v>
+      </c>
       <c r="AM6">
         <v>1</v>
       </c>
@@ -31203,7 +31217,7 @@
         <v>7.5009138873610326E-2</v>
       </c>
       <c r="AQ6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AR6">
         <v>40</v>
@@ -31226,13 +31240,13 @@
         <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J7" s="96" t="s">
         <v>156</v>
       </c>
       <c r="K7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -31288,7 +31302,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="AQ7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AR7">
         <v>30</v>
@@ -31311,13 +31325,13 @@
         <v>189</v>
       </c>
       <c r="G8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J8" s="96" t="s">
         <v>156</v>
       </c>
       <c r="K8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O8">
         <v>1</v>
@@ -31373,7 +31387,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="AQ8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AR8">
         <v>30</v>
@@ -31402,7 +31416,7 @@
         <v>156</v>
       </c>
       <c r="K9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -31458,7 +31472,7 @@
         <v>7.5009138873610326E-2</v>
       </c>
       <c r="AQ9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AR9">
         <v>40</v>
@@ -31525,7 +31539,7 @@
         <v>193</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
         <v>194</v>
@@ -31566,7 +31580,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I2" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J2">
         <v>30</v>
@@ -31607,7 +31621,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I3" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J3">
         <v>30</v>
@@ -31646,7 +31660,7 @@
         <v>9.4392925743255696E-2</v>
       </c>
       <c r="I4" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J4">
         <v>20</v>
@@ -31687,7 +31701,7 @@
         <v>7.5009138873610326E-2</v>
       </c>
       <c r="I5" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J5">
         <v>40</v>
@@ -31728,7 +31742,7 @@
         <v>7.5009138873610326E-2</v>
       </c>
       <c r="I6" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J6">
         <v>40</v>
@@ -31767,7 +31781,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I7" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J7">
         <v>30</v>
@@ -31806,7 +31820,7 @@
         <v>8.0586403511111196E-2</v>
       </c>
       <c r="I8" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J8">
         <v>30</v>
@@ -31845,7 +31859,7 @@
         <v>7.5009138873610326E-2</v>
       </c>
       <c r="I9" s="85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J9">
         <v>40</v>
@@ -31914,7 +31928,7 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E2">
         <f>'Matrix 2024'!D13</f>
@@ -31935,7 +31949,7 @@
         <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3">
         <f>'Matrix 2024'!E13</f>
@@ -31956,7 +31970,7 @@
         <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E4">
         <f>'Matrix 2024'!F13</f>

--- a/src_files/data_files/gg-smr-scenario-changes.xlsx
+++ b/src_files/data_files/gg-smr-scenario-changes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\north_european_model\src_files\data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backbone\north_european_model\src_files\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC328F0-5165-4EF8-8CA6-02D9BFB1C28E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16AEE4D-B3FA-48F0-8971-6A4BC18E114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="17880" windowWidth="29040" windowHeight="15720" tabRatio="862" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="20" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">TEMPLATE!$A$1:$G$346</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">unittypedata_nuclear!$A$1:$AJ$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">unittypedata_nuclear!$A$1:$AL$1</definedName>
     <definedName name="a">#REF!</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aaa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3474" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3476" uniqueCount="358">
   <si>
     <t>Country</t>
   </si>
@@ -1404,7 +1404,16 @@
     <t>DEA data</t>
   </si>
   <si>
-    <t>2025-10-09</t>
+    <t>unitSize_input1</t>
+  </si>
+  <si>
+    <t>unitSize_output1</t>
+  </si>
+  <si>
+    <t>unitSize_output2</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
   </si>
 </sst>
 </file>
@@ -1417,7 +1426,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1717,8 +1726,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1823,6 +1840,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -1936,7 +1958,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1953,8 +1975,9 @@
     <xf numFmtId="0" fontId="35" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2176,6 +2199,7 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="13"/>
     <xf numFmtId="0" fontId="41" fillId="18" borderId="9" xfId="12"/>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="9" xfId="14"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -2204,8 +2228,9 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Bad" xfId="11" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="14" builtinId="22"/>
     <cellStyle name="ČEPS" xfId="3" xr:uid="{055F4603-C55C-4D73-9C89-501612CA5A5D}"/>
     <cellStyle name="Comma" xfId="10" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="4" xr:uid="{4D01FCE7-C6F2-4A9A-8B9B-FBFD721CF21A}"/>
@@ -4193,8 +4218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA71A91-038D-4743-9A24-5EE3CD503F37}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4233,7 +4258,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -5736,31 +5761,31 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="105" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="104" t="s">
+      <c r="C3" s="105" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="104" t="s">
+      <c r="D3" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="106" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="106"/>
+      <c r="K3" s="106"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="68" t="s">
         <v>146</v>
       </c>
@@ -5790,20 +5815,20 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="104"/>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104"/>
-      <c r="E5" s="106" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="107"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="107"/>
+      <c r="L5" s="107"/>
+      <c r="M5" s="107"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="69">
@@ -14470,16 +14495,16 @@
       </c>
     </row>
     <row r="348" spans="1:17">
-      <c r="J348" s="107" t="s">
+      <c r="J348" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="K348" s="107"/>
-      <c r="L348" s="107"/>
-      <c r="M348" s="107" t="s">
+      <c r="K348" s="108"/>
+      <c r="L348" s="108"/>
+      <c r="M348" s="108" t="s">
         <v>233</v>
       </c>
-      <c r="N348" s="107"/>
-      <c r="O348" s="107"/>
+      <c r="N348" s="108"/>
+      <c r="O348" s="108"/>
       <c r="Q348" t="s">
         <v>234</v>
       </c>
@@ -27802,13 +27827,13 @@
   <sheetPr>
     <tabColor theme="6" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AJ28"/>
+  <dimension ref="A1:AL28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W25" sqref="W25:W26"/>
+      <selection pane="bottomRight" activeCell="AF15" sqref="AF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -27831,15 +27856,15 @@
     <col min="20" max="20" width="14" style="97" customWidth="1"/>
     <col min="21" max="21" width="14.7109375" style="97" customWidth="1"/>
     <col min="22" max="22" width="14.5703125" style="97" customWidth="1"/>
-    <col min="23" max="27" width="8.42578125" style="97" customWidth="1"/>
-    <col min="28" max="28" width="14" style="97" customWidth="1"/>
-    <col min="29" max="35" width="10.140625" style="97" customWidth="1"/>
-    <col min="36" max="1031" width="8.42578125" style="97"/>
-    <col min="1032" max="1032" width="9.140625" style="97" customWidth="1"/>
-    <col min="1033" max="16384" width="8.42578125" style="97"/>
+    <col min="23" max="29" width="8.42578125" style="97" customWidth="1"/>
+    <col min="30" max="30" width="14" style="97" customWidth="1"/>
+    <col min="31" max="37" width="10.140625" style="97" customWidth="1"/>
+    <col min="38" max="1033" width="8.42578125" style="97"/>
+    <col min="1034" max="1034" width="9.140625" style="97" customWidth="1"/>
+    <col min="1035" max="16384" width="8.42578125" style="97"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="48" customHeight="1">
+    <row r="1" spans="1:38" ht="48" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -27919,37 +27944,43 @@
         <v>306</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AB1" s="92" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD1" s="92" t="s">
         <v>309</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="AG1" s="97" t="s">
+      <c r="AI1" s="97" t="s">
         <v>195</v>
       </c>
-      <c r="AH1" s="97" t="s">
+      <c r="AJ1" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="AI1" s="97" t="s">
+      <c r="AK1" s="97" t="s">
         <v>318</v>
       </c>
-      <c r="AJ1" s="97" t="s">
+      <c r="AL1" s="97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:36" customFormat="1">
+    <row r="2" spans="1:38" customFormat="1">
       <c r="A2" t="s">
         <v>319</v>
       </c>
@@ -28022,26 +28053,26 @@
       <c r="AA2" s="98">
         <v>1</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>300</v>
       </c>
-      <c r="AC2">
+      <c r="AE2">
         <v>30000</v>
       </c>
-      <c r="AD2">
+      <c r="AF2">
         <v>1350000</v>
       </c>
-      <c r="AE2">
+      <c r="AG2">
         <v>7.5009138873610326E-2</v>
       </c>
-      <c r="AF2">
+      <c r="AH2">
         <v>40</v>
       </c>
-      <c r="AG2">
+      <c r="AI2">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" customFormat="1">
+    <row r="3" spans="1:38" customFormat="1">
       <c r="A3" t="s">
         <v>320</v>
       </c>
@@ -28114,26 +28145,26 @@
       <c r="AA3" s="98">
         <v>1</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>400</v>
       </c>
-      <c r="AC3">
+      <c r="AE3">
         <v>114150</v>
       </c>
-      <c r="AD3">
+      <c r="AF3">
         <v>4425000</v>
       </c>
-      <c r="AE3">
+      <c r="AG3">
         <v>7.2459849539607671E-2</v>
       </c>
-      <c r="AF3">
+      <c r="AH3">
         <v>50</v>
       </c>
-      <c r="AG3">
+      <c r="AI3">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36" customFormat="1">
+    <row r="4" spans="1:38" customFormat="1">
       <c r="A4" t="s">
         <v>321</v>
       </c>
@@ -28206,29 +28237,29 @@
       <c r="AA4" s="98">
         <v>1</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>500</v>
       </c>
-      <c r="AC4">
+      <c r="AE4">
         <v>198300</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>7500000</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>7.122922550001945E-2</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>60</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="5" spans="1:36" customFormat="1">
+    <row r="5" spans="1:38" customFormat="1">
       <c r="A5" t="s">
         <v>322</v>
       </c>
@@ -28301,26 +28332,26 @@
       <c r="AA5" s="98">
         <v>1</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>1250</v>
       </c>
-      <c r="AC5">
+      <c r="AE5">
         <v>374150</v>
       </c>
-      <c r="AD5">
+      <c r="AF5">
         <v>17250000</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <v>7.0619527184264883E-2</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <v>70</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" customFormat="1">
+    <row r="6" spans="1:38" customFormat="1">
       <c r="A6" t="s">
         <v>323</v>
       </c>
@@ -28393,26 +28424,26 @@
       <c r="AA6" s="98">
         <v>1</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>2000</v>
       </c>
-      <c r="AC6">
+      <c r="AE6">
         <v>550000</v>
       </c>
-      <c r="AD6">
+      <c r="AF6">
         <v>27000000</v>
       </c>
-      <c r="AE6">
+      <c r="AG6">
         <v>7.0313571760871663E-2</v>
       </c>
-      <c r="AF6">
+      <c r="AH6">
         <v>80</v>
       </c>
-      <c r="AG6">
+      <c r="AI6">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:36" customFormat="1">
+    <row r="7" spans="1:38" customFormat="1">
       <c r="A7" t="s">
         <v>347</v>
       </c>
@@ -28485,29 +28516,29 @@
       <c r="AA7" s="98">
         <v>1</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>2000</v>
       </c>
-      <c r="AC7">
+      <c r="AE7">
         <v>550000</v>
       </c>
-      <c r="AD7">
+      <c r="AF7">
         <v>27000000</v>
       </c>
-      <c r="AE7">
+      <c r="AG7">
         <v>7.5009138873610326E-2</v>
       </c>
-      <c r="AF7">
+      <c r="AH7">
         <v>40</v>
       </c>
-      <c r="AG7">
+      <c r="AI7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AL7" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="8" spans="1:36" customFormat="1">
+    <row r="8" spans="1:38" customFormat="1">
       <c r="A8" t="s">
         <v>349</v>
       </c>
@@ -28580,29 +28611,29 @@
       <c r="AA8" s="98">
         <v>1</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>1250</v>
       </c>
-      <c r="AC8">
+      <c r="AE8">
         <v>374150</v>
       </c>
-      <c r="AD8">
+      <c r="AF8">
         <v>17250000</v>
       </c>
-      <c r="AE8">
+      <c r="AG8">
         <v>7.2459849539607671E-2</v>
       </c>
-      <c r="AF8">
+      <c r="AH8">
         <v>50</v>
       </c>
-      <c r="AG8">
+      <c r="AI8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AL8" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:36" customFormat="1">
+    <row r="9" spans="1:38" customFormat="1">
       <c r="A9" t="s">
         <v>324</v>
       </c>
@@ -28675,29 +28706,29 @@
       <c r="AA9" s="98">
         <v>1</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>400</v>
       </c>
-      <c r="AC9">
+      <c r="AE9">
         <v>114150</v>
       </c>
-      <c r="AD9">
+      <c r="AF9">
         <v>4425000</v>
       </c>
-      <c r="AE9">
+      <c r="AG9">
         <v>7.0619527184264883E-2</v>
       </c>
-      <c r="AF9">
+      <c r="AH9">
         <v>70</v>
       </c>
-      <c r="AG9">
+      <c r="AI9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AL9" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="10" spans="1:36" customFormat="1">
+    <row r="10" spans="1:38" customFormat="1">
       <c r="A10" t="s">
         <v>326</v>
       </c>
@@ -28770,29 +28801,29 @@
       <c r="AA10" s="98">
         <v>1</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>300</v>
       </c>
-      <c r="AC10">
+      <c r="AE10">
         <v>30000</v>
       </c>
-      <c r="AD10">
+      <c r="AF10">
         <v>1350000</v>
       </c>
-      <c r="AE10">
+      <c r="AG10">
         <v>7.0313571760871663E-2</v>
       </c>
-      <c r="AF10">
+      <c r="AH10">
         <v>80</v>
       </c>
-      <c r="AG10">
+      <c r="AI10">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AL10" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="11" spans="1:36" customFormat="1">
+    <row r="11" spans="1:38" customFormat="1">
       <c r="A11" t="s">
         <v>319</v>
       </c>
@@ -28829,8 +28860,8 @@
       <c r="L11">
         <v>0.2</v>
       </c>
-      <c r="M11" s="98">
-        <v>0</v>
+      <c r="M11">
+        <v>-0.17</v>
       </c>
       <c r="N11">
         <v>1.2</v>
@@ -28874,26 +28905,34 @@
       <c r="AA11" s="98">
         <v>1</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="99">
+        <f>ROUNDUP(AA11/L11,0)</f>
+        <v>5</v>
+      </c>
+      <c r="AC11" s="99">
+        <f>ROUNDUP(SUM(AA11:AB11)/H11,0)</f>
+        <v>10</v>
+      </c>
+      <c r="AD11">
         <v>300</v>
       </c>
-      <c r="AC11">
-        <v>30000</v>
-      </c>
-      <c r="AD11">
-        <v>1350000</v>
-      </c>
       <c r="AE11">
+        <v>16216</v>
+      </c>
+      <c r="AF11">
+        <v>729729</v>
+      </c>
+      <c r="AG11">
         <v>7.5009138873610326E-2</v>
       </c>
-      <c r="AF11">
+      <c r="AH11">
         <v>40</v>
       </c>
-      <c r="AG11">
+      <c r="AI11">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:36" customFormat="1">
+    <row r="12" spans="1:38" customFormat="1">
       <c r="A12" t="s">
         <v>320</v>
       </c>
@@ -28930,8 +28969,8 @@
       <c r="L12">
         <v>0.3</v>
       </c>
-      <c r="M12" s="98">
-        <v>0</v>
+      <c r="M12">
+        <v>-0.16</v>
       </c>
       <c r="N12">
         <v>2.08</v>
@@ -28975,26 +29014,34 @@
       <c r="AA12" s="98">
         <v>1</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="99">
+        <f>ROUNDUP(AA12/L12,0)</f>
+        <v>4</v>
+      </c>
+      <c r="AC12" s="99">
+        <f t="shared" ref="AC12:AC19" si="0">ROUNDUP(SUM(AA12:AB12)/H12,0)</f>
+        <v>7</v>
+      </c>
+      <c r="AD12">
         <v>427.5</v>
       </c>
-      <c r="AC12">
-        <v>125056</v>
-      </c>
-      <c r="AD12">
-        <v>4837500</v>
-      </c>
       <c r="AE12">
+        <v>88149</v>
+      </c>
+      <c r="AF12">
+        <v>3392137</v>
+      </c>
+      <c r="AG12">
         <v>7.2459849539607671E-2</v>
       </c>
-      <c r="AF12">
+      <c r="AH12">
         <v>50</v>
       </c>
-      <c r="AG12">
+      <c r="AI12">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:36" customFormat="1">
+    <row r="13" spans="1:38" customFormat="1">
       <c r="A13" t="s">
         <v>321</v>
       </c>
@@ -29031,8 +29078,8 @@
       <c r="L13">
         <v>0.4</v>
       </c>
-      <c r="M13" s="98">
-        <v>0</v>
+      <c r="M13">
+        <v>-0.15</v>
       </c>
       <c r="N13">
         <v>2.96</v>
@@ -29076,29 +29123,37 @@
       <c r="AA13" s="98">
         <v>1</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="99">
+        <f t="shared" ref="AB13:AB19" si="1">ROUNDUP(AA13/L13,0)</f>
+        <v>3</v>
+      </c>
+      <c r="AC13" s="99">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AD13">
         <v>555</v>
       </c>
-      <c r="AC13">
-        <v>220113</v>
-      </c>
-      <c r="AD13">
-        <v>8325000</v>
-      </c>
       <c r="AE13">
+        <v>160082</v>
+      </c>
+      <c r="AF13">
+        <v>6054545</v>
+      </c>
+      <c r="AG13">
         <v>7.122922550001945E-2</v>
       </c>
-      <c r="AF13">
+      <c r="AH13">
         <v>60</v>
       </c>
-      <c r="AG13">
+      <c r="AI13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AL13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="1:36" customFormat="1">
+    <row r="14" spans="1:38" customFormat="1">
       <c r="A14" t="s">
         <v>322</v>
       </c>
@@ -29135,8 +29190,8 @@
       <c r="L14">
         <v>0.5</v>
       </c>
-      <c r="M14" s="98">
-        <v>0</v>
+      <c r="M14">
+        <v>-0.14000000000000001</v>
       </c>
       <c r="N14">
         <v>11.49</v>
@@ -29180,26 +29235,34 @@
       <c r="AA14" s="98">
         <v>1</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="99">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC14" s="99">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AD14">
         <v>1497.5</v>
       </c>
-      <c r="AC14">
-        <v>445557</v>
-      </c>
-      <c r="AD14">
-        <v>20632500</v>
-      </c>
       <c r="AE14">
+        <v>355794</v>
+      </c>
+      <c r="AF14">
+        <v>16564259</v>
+      </c>
+      <c r="AG14">
         <v>7.0619527184264883E-2</v>
       </c>
-      <c r="AF14">
+      <c r="AH14">
         <v>70</v>
       </c>
-      <c r="AG14">
+      <c r="AI14">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:36" customFormat="1">
+    <row r="15" spans="1:38" customFormat="1">
       <c r="A15" t="s">
         <v>323</v>
       </c>
@@ -29236,8 +29299,8 @@
       <c r="L15">
         <v>0.6</v>
       </c>
-      <c r="M15" s="98">
-        <v>0</v>
+      <c r="M15">
+        <v>-0.13</v>
       </c>
       <c r="N15">
         <v>20.010000000000002</v>
@@ -29281,26 +29344,34 @@
       <c r="AA15" s="98">
         <v>1</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="99">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC15" s="99">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AD15">
         <v>2440</v>
       </c>
-      <c r="AC15">
-        <v>671000</v>
-      </c>
-      <c r="AD15">
-        <v>32940000</v>
-      </c>
       <c r="AE15">
+        <v>551506</v>
+      </c>
+      <c r="AF15">
+        <v>27073972</v>
+      </c>
+      <c r="AG15">
         <v>7.0313571760871663E-2</v>
       </c>
-      <c r="AF15">
+      <c r="AH15">
         <v>80</v>
       </c>
-      <c r="AG15">
+      <c r="AI15">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" customFormat="1">
+    <row r="16" spans="1:38" customFormat="1">
       <c r="A16" t="s">
         <v>347</v>
       </c>
@@ -29337,8 +29408,8 @@
       <c r="L16">
         <v>0.2</v>
       </c>
-      <c r="M16" s="98">
-        <v>0</v>
+      <c r="M16">
+        <v>-0.17</v>
       </c>
       <c r="N16">
         <v>20.010000000000002</v>
@@ -29382,29 +29453,37 @@
       <c r="AA16" s="98">
         <v>1</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="99">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AC16" s="99">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="AD16">
         <v>2440</v>
       </c>
-      <c r="AC16">
-        <v>671000</v>
-      </c>
-      <c r="AD16">
-        <v>32940000</v>
-      </c>
       <c r="AE16">
+        <v>551506</v>
+      </c>
+      <c r="AF16">
+        <v>27073972</v>
+      </c>
+      <c r="AG16">
         <v>7.5009138873610326E-2</v>
       </c>
-      <c r="AF16">
+      <c r="AH16">
         <v>40</v>
       </c>
-      <c r="AG16">
+      <c r="AI16">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AL16" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="17" spans="1:36" customFormat="1">
+    <row r="17" spans="1:38" customFormat="1">
       <c r="A17" t="s">
         <v>349</v>
       </c>
@@ -29441,8 +29520,8 @@
       <c r="L17">
         <v>0.3</v>
       </c>
-      <c r="M17" s="98">
-        <v>0</v>
+      <c r="M17">
+        <v>-0.16</v>
       </c>
       <c r="N17">
         <v>11.49</v>
@@ -29486,29 +29565,37 @@
       <c r="AA17" s="98">
         <v>1</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="99">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC17" s="99">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="AD17">
         <v>1497.5</v>
       </c>
-      <c r="AC17">
-        <v>445557</v>
-      </c>
-      <c r="AD17">
-        <v>20632500</v>
-      </c>
       <c r="AE17">
+        <v>355794</v>
+      </c>
+      <c r="AF17">
+        <v>16564259</v>
+      </c>
+      <c r="AG17">
         <v>7.2459849539607671E-2</v>
       </c>
-      <c r="AF17">
+      <c r="AH17">
         <v>50</v>
       </c>
-      <c r="AG17">
+      <c r="AI17">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AL17" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="18" spans="1:36" customFormat="1">
+    <row r="18" spans="1:38" customFormat="1">
       <c r="A18" t="s">
         <v>324</v>
       </c>
@@ -29545,8 +29632,8 @@
       <c r="L18">
         <v>0.5</v>
       </c>
-      <c r="M18" s="98">
-        <v>0</v>
+      <c r="M18">
+        <v>-0.14000000000000001</v>
       </c>
       <c r="N18">
         <v>2.08</v>
@@ -29590,29 +29677,37 @@
       <c r="AA18" s="98">
         <v>1</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="99">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC18" s="99">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AD18">
         <v>427.5</v>
       </c>
-      <c r="AC18">
-        <v>125056</v>
-      </c>
-      <c r="AD18">
-        <v>4837500</v>
-      </c>
       <c r="AE18">
+        <v>88149</v>
+      </c>
+      <c r="AF18">
+        <v>3392137</v>
+      </c>
+      <c r="AG18">
         <v>7.0619527184264883E-2</v>
       </c>
-      <c r="AF18">
+      <c r="AH18">
         <v>70</v>
       </c>
-      <c r="AG18">
+      <c r="AI18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AL18" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:36" customFormat="1">
+    <row r="19" spans="1:38" customFormat="1">
       <c r="A19" t="s">
         <v>326</v>
       </c>
@@ -29649,8 +29744,8 @@
       <c r="L19">
         <v>0.6</v>
       </c>
-      <c r="M19" s="98">
-        <v>0</v>
+      <c r="M19">
+        <v>-0.13</v>
       </c>
       <c r="N19">
         <v>1.2</v>
@@ -29694,29 +29789,37 @@
       <c r="AA19" s="98">
         <v>1</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="99">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AC19" s="99">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="AD19">
         <v>300</v>
       </c>
-      <c r="AC19">
-        <v>30000</v>
-      </c>
-      <c r="AD19">
-        <v>1350000</v>
-      </c>
       <c r="AE19">
+        <v>16216</v>
+      </c>
+      <c r="AF19">
+        <v>729729</v>
+      </c>
+      <c r="AG19">
         <v>7.0313571760871663E-2</v>
       </c>
-      <c r="AF19">
+      <c r="AH19">
         <v>80</v>
       </c>
-      <c r="AG19">
+      <c r="AI19">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AL19" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:36" customFormat="1">
+    <row r="20" spans="1:38" customFormat="1">
       <c r="A20" t="s">
         <v>319</v>
       </c>
@@ -29789,26 +29892,26 @@
       <c r="AA20" s="98">
         <v>1</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>50</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>7320</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>244000</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>7.5009138873610326E-2</v>
       </c>
-      <c r="AF20">
+      <c r="AH20">
         <v>40</v>
       </c>
-      <c r="AG20">
+      <c r="AI20">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:36" customFormat="1">
+    <row r="21" spans="1:38" customFormat="1">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -29881,26 +29984,26 @@
       <c r="AA21" s="98">
         <v>1</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>150</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>20160</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>611000</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>7.2459849539607671E-2</v>
       </c>
-      <c r="AF21">
+      <c r="AH21">
         <v>50</v>
       </c>
-      <c r="AG21">
+      <c r="AI21">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:36" customFormat="1">
+    <row r="22" spans="1:38" customFormat="1">
       <c r="A22" t="s">
         <v>321</v>
       </c>
@@ -29973,29 +30076,29 @@
       <c r="AA22" s="98">
         <v>1</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>250</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>33000</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>978000</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <v>7.122922550001945E-2</v>
       </c>
-      <c r="AF22">
+      <c r="AH22">
         <v>60</v>
       </c>
-      <c r="AG22">
+      <c r="AI22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AL22" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="23" spans="1:36" customFormat="1">
+    <row r="23" spans="1:38" customFormat="1">
       <c r="A23" t="s">
         <v>322</v>
       </c>
@@ -30068,26 +30171,26 @@
       <c r="AA23" s="98">
         <v>1</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>625</v>
       </c>
-      <c r="AC23">
+      <c r="AE23">
         <v>50250</v>
       </c>
-      <c r="AD23">
+      <c r="AF23">
         <v>1614000</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
         <v>7.0619527184264883E-2</v>
       </c>
-      <c r="AF23">
+      <c r="AH23">
         <v>70</v>
       </c>
-      <c r="AG23">
+      <c r="AI23">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" customFormat="1">
+    <row r="24" spans="1:38" customFormat="1">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -30160,26 +30263,26 @@
       <c r="AA24" s="98">
         <v>1</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>1000</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <v>67500</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>2250000</v>
       </c>
-      <c r="AE24">
+      <c r="AG24">
         <v>7.0313571760871663E-2</v>
       </c>
-      <c r="AF24">
+      <c r="AH24">
         <v>80</v>
       </c>
-      <c r="AG24">
+      <c r="AI24">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" customFormat="1">
+    <row r="25" spans="1:38" customFormat="1">
       <c r="A25" t="s">
         <v>347</v>
       </c>
@@ -30252,29 +30355,29 @@
       <c r="AA25" s="98">
         <v>1</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>1000</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>67500</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>2250000</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <v>7.5009138873610326E-2</v>
       </c>
-      <c r="AF25">
+      <c r="AH25">
         <v>40</v>
       </c>
-      <c r="AG25">
+      <c r="AI25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ25" t="s">
+      <c r="AL25" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:36" customFormat="1">
+    <row r="26" spans="1:38" customFormat="1">
       <c r="A26" t="s">
         <v>349</v>
       </c>
@@ -30347,29 +30450,29 @@
       <c r="AA26" s="98">
         <v>1</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>625</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <v>50250</v>
       </c>
-      <c r="AD26">
+      <c r="AF26">
         <v>1614000</v>
       </c>
-      <c r="AE26">
+      <c r="AG26">
         <v>7.2459849539607671E-2</v>
       </c>
-      <c r="AF26">
+      <c r="AH26">
         <v>50</v>
       </c>
-      <c r="AG26">
+      <c r="AI26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ26" t="s">
+      <c r="AL26" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="27" spans="1:36" customFormat="1">
+    <row r="27" spans="1:38" customFormat="1">
       <c r="A27" t="s">
         <v>324</v>
       </c>
@@ -30442,29 +30545,29 @@
       <c r="AA27" s="98">
         <v>1</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <v>150</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <v>20160</v>
       </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>611000</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
         <v>7.0619527184264883E-2</v>
       </c>
-      <c r="AF27">
+      <c r="AH27">
         <v>70</v>
       </c>
-      <c r="AG27">
+      <c r="AI27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ27" t="s">
+      <c r="AL27" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:36" customFormat="1">
+    <row r="28" spans="1:38" customFormat="1">
       <c r="A28" t="s">
         <v>326</v>
       </c>
@@ -30537,30 +30640,30 @@
       <c r="AA28" s="98">
         <v>1</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>50</v>
       </c>
-      <c r="AC28">
+      <c r="AE28">
         <v>7320</v>
       </c>
-      <c r="AD28">
+      <c r="AF28">
         <v>244000</v>
       </c>
-      <c r="AE28">
+      <c r="AG28">
         <v>7.0313571760871663E-2</v>
       </c>
-      <c r="AF28">
+      <c r="AH28">
         <v>80</v>
       </c>
-      <c r="AG28">
+      <c r="AI28">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AJ28" t="s">
+      <c r="AL28" t="s">
         <v>327</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AL1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -32668,20 +32771,20 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="14.45" customHeight="1">
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="101" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="101" t="s">
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="102" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="14.45" customHeight="1">
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="102"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1">
       <c r="B4" s="22" t="s">
@@ -32751,7 +32854,7 @@
       <c r="G6" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="H6" s="102"/>
+      <c r="H6" s="103"/>
     </row>
     <row r="7" spans="2:12" ht="26.1" customHeight="1">
       <c r="B7" s="33" t="s">
@@ -32772,7 +32875,7 @@
       <c r="G7" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="H7" s="99"/>
+      <c r="H7" s="100"/>
     </row>
     <row r="8" spans="2:12" ht="15.75" customHeight="1">
       <c r="B8" s="29" t="s">
@@ -32793,7 +32896,7 @@
       <c r="G8" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="99"/>
+      <c r="H8" s="100"/>
     </row>
     <row r="9" spans="2:12" ht="15.75" customHeight="1">
       <c r="B9" s="29" t="s">
@@ -32814,7 +32917,7 @@
       <c r="G9" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="103"/>
+      <c r="H9" s="104"/>
     </row>
     <row r="10" spans="2:12" ht="15.75" customHeight="1">
       <c r="B10" s="35" t="s">
@@ -32838,7 +32941,7 @@
       <c r="G10" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="102"/>
+      <c r="H10" s="103"/>
     </row>
     <row r="11" spans="2:12" ht="15.75" customHeight="1">
       <c r="B11" s="35" t="s">
@@ -32862,7 +32965,7 @@
       <c r="G11" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="99"/>
+      <c r="H11" s="100"/>
       <c r="J11">
         <f>E11/D11</f>
         <v>0.89873417721518989</v>
@@ -32894,7 +32997,7 @@
       <c r="G12" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="99"/>
+      <c r="H12" s="100"/>
       <c r="J12" s="37"/>
     </row>
     <row r="13" spans="2:12" ht="15.75" customHeight="1">
@@ -32919,7 +33022,7 @@
       <c r="G13" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="H13" s="103"/>
+      <c r="H13" s="104"/>
     </row>
     <row r="14" spans="2:12" ht="15.75" customHeight="1">
       <c r="B14" s="35" t="s">
@@ -32943,7 +33046,7 @@
       <c r="G14" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="H14" s="102"/>
+      <c r="H14" s="103"/>
     </row>
     <row r="15" spans="2:12" ht="15.75" customHeight="1">
       <c r="B15" s="38" t="s">
@@ -32964,7 +33067,7 @@
       <c r="G15" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H15" s="103"/>
+      <c r="H15" s="104"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" customHeight="1">
       <c r="B16" s="29" t="s">
@@ -33219,10 +33322,10 @@
       </c>
     </row>
     <row r="31" spans="2:12">
-      <c r="I31" s="99"/>
+      <c r="I31" s="100"/>
     </row>
     <row r="32" spans="2:12">
-      <c r="I32" s="99"/>
+      <c r="I32" s="100"/>
     </row>
     <row r="33" spans="2:11">
       <c r="D33">
@@ -33234,7 +33337,7 @@
       <c r="F33">
         <v>2050</v>
       </c>
-      <c r="I33" s="99"/>
+      <c r="I33" s="100"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" t="s">
